--- a/docs/charset.xlsx
+++ b/docs/charset.xlsx
@@ -21,6 +21,29 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>// A thru H</t>
+  </si>
+  <si>
+    <t>//I thru P</t>
+  </si>
+  <si>
+    <t>// Q thru X</t>
+  </si>
+  <si>
+    <t>// Y,Z</t>
+  </si>
+  <si>
+    <t>//0-7</t>
+  </si>
+  <si>
+    <t>//8-9</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -375,8 +398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEBD68D4-0BA7-41BC-8B9F-E16823DD9337}">
   <dimension ref="A2:BR39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="BR35" sqref="BR35:BR39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -384,7 +407,7 @@
     <col min="1" max="36" width="3.28515625" style="1"/>
     <col min="37" max="37" width="4.28515625" style="1" customWidth="1"/>
     <col min="38" max="69" width="3.28515625" style="1"/>
-    <col min="70" max="70" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="17.28515625" style="1" customWidth="1"/>
     <col min="71" max="16384" width="3.28515625" style="1"/>
   </cols>
   <sheetData>
@@ -616,6 +639,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BR4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="5" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
@@ -812,8 +840,8 @@
         <v>0</v>
       </c>
       <c r="BR5" s="1" t="str">
-        <f>"0x" &amp; DEC2HEX(SUM(AK5:BP5)) &amp; ", "</f>
-        <v xml:space="preserve">0xEEECEEEA, </v>
+        <f>"0x" &amp; DEC2HEX(SUM(AK5:BP5)) &amp; "U, "</f>
+        <v xml:space="preserve">0xEEECEEEAU, </v>
       </c>
     </row>
     <row r="6" spans="1:70" x14ac:dyDescent="0.25">
@@ -982,8 +1010,8 @@
         <v>0</v>
       </c>
       <c r="BR6" s="1" t="str">
-        <f t="shared" ref="BR6:BR9" si="32">"0x" &amp; DEC2HEX(SUM(AK6:BP6)) &amp; ", "</f>
-        <v xml:space="preserve">0xAA8A888A, </v>
+        <f t="shared" ref="BR6:BR9" si="32">"0x" &amp; DEC2HEX(SUM(AK6:BP6)) &amp; "U, "</f>
+        <v xml:space="preserve">0xAA8A888AU, </v>
       </c>
     </row>
     <row r="7" spans="1:70" x14ac:dyDescent="0.25">
@@ -1165,7 +1193,7 @@
       </c>
       <c r="BR7" s="1" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">0xEC8ACC8E, </v>
+        <v xml:space="preserve">0xEC8ACC8EU, </v>
       </c>
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.25">
@@ -1338,7 +1366,7 @@
       </c>
       <c r="BR8" s="1" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">0xAA8A88AA, </v>
+        <v xml:space="preserve">0xAA8A88AAU, </v>
       </c>
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.25">
@@ -1529,7 +1557,12 @@
       </c>
       <c r="BR9" s="1" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">0xAEECE8EA, </v>
+        <v xml:space="preserve">0xAEECE8EAU, </v>
+      </c>
+    </row>
+    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BR10" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:70" x14ac:dyDescent="0.25">
@@ -1716,8 +1749,8 @@
         <v>0</v>
       </c>
       <c r="BR11" s="1" t="str">
-        <f>"0x" &amp; DEC2HEX(SUM(AK11:BP11)) &amp; ", "</f>
-        <v xml:space="preserve">0xE2A8AEEE, </v>
+        <f>"0x" &amp; DEC2HEX(SUM(AK11:BP11)) &amp; "U, "</f>
+        <v xml:space="preserve">0xE2A8AEEEU, </v>
       </c>
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.25">
@@ -1892,8 +1925,8 @@
         <v>0</v>
       </c>
       <c r="BR12" s="1" t="str">
-        <f t="shared" ref="BR12:BR15" si="65">"0x" &amp; DEC2HEX(SUM(AK12:BP12)) &amp; ", "</f>
-        <v xml:space="preserve">0x42A8EAAA, </v>
+        <f t="shared" ref="BR12:BR15" si="65">"0x" &amp; DEC2HEX(SUM(AK12:BP12)) &amp; "U, "</f>
+        <v xml:space="preserve">0x42A8EAAAU, </v>
       </c>
     </row>
     <row r="13" spans="1:70" x14ac:dyDescent="0.25">
@@ -2069,7 +2102,7 @@
       </c>
       <c r="BR13" s="1" t="str">
         <f t="shared" si="65"/>
-        <v xml:space="preserve">0x42C8AAAE, </v>
+        <v xml:space="preserve">0x42C8AAAEU, </v>
       </c>
     </row>
     <row r="14" spans="1:70" x14ac:dyDescent="0.25">
@@ -2239,7 +2272,7 @@
       </c>
       <c r="BR14" s="1" t="str">
         <f t="shared" si="65"/>
-        <v xml:space="preserve">0x42A8AAA8, </v>
+        <v xml:space="preserve">0x42A8AAA8U, </v>
       </c>
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.25">
@@ -2427,7 +2460,12 @@
       </c>
       <c r="BR15" s="1" t="str">
         <f t="shared" si="65"/>
-        <v xml:space="preserve">0xECAEAAE8, </v>
+        <v xml:space="preserve">0xECAEAAE8U, </v>
+      </c>
+    </row>
+    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BR16" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:70" x14ac:dyDescent="0.25">
@@ -2620,8 +2658,8 @@
         <v>0</v>
       </c>
       <c r="BR17" s="1" t="str">
-        <f>"0x" &amp; DEC2HEX(SUM(AK17:BP17)) &amp; ", "</f>
-        <v xml:space="preserve">0xEEEEAAAA, </v>
+        <f>"0x" &amp; DEC2HEX(SUM(AK17:BP17)) &amp; "U, "</f>
+        <v xml:space="preserve">0xEEEEAAAAU, </v>
       </c>
     </row>
     <row r="18" spans="1:70" x14ac:dyDescent="0.25">
@@ -2796,8 +2834,8 @@
         <v>0</v>
       </c>
       <c r="BR18" s="1" t="str">
-        <f t="shared" ref="BR18:BR21" si="98">"0x" &amp; DEC2HEX(SUM(AK18:BP18)) &amp; ", "</f>
-        <v xml:space="preserve">0xAA84AAAA, </v>
+        <f t="shared" ref="BR18:BR21" si="98">"0x" &amp; DEC2HEX(SUM(AK18:BP18)) &amp; "U, "</f>
+        <v xml:space="preserve">0xAA84AAAAU, </v>
       </c>
     </row>
     <row r="19" spans="1:70" x14ac:dyDescent="0.25">
@@ -2976,7 +3014,7 @@
       </c>
       <c r="BR19" s="1" t="str">
         <f t="shared" si="98"/>
-        <v xml:space="preserve">0xACE4AAA4, </v>
+        <v xml:space="preserve">0xACE4AAA4U, </v>
       </c>
     </row>
     <row r="20" spans="1:70" x14ac:dyDescent="0.25">
@@ -3158,7 +3196,7 @@
       </c>
       <c r="BR20" s="1" t="str">
         <f t="shared" si="98"/>
-        <v xml:space="preserve">0xEA24AAEA, </v>
+        <v xml:space="preserve">0xEA24AAEAU, </v>
       </c>
     </row>
     <row r="21" spans="1:70" x14ac:dyDescent="0.25">
@@ -3346,7 +3384,12 @@
       </c>
       <c r="BR21" s="1" t="str">
         <f t="shared" si="98"/>
-        <v xml:space="preserve">0xEAE4ECAA, </v>
+        <v xml:space="preserve">0xEAE4ECAAU, </v>
+      </c>
+    </row>
+    <row r="22" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BR22" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:70" x14ac:dyDescent="0.25">
@@ -3365,6 +3408,9 @@
       <c r="G23" s="1">
         <v>1</v>
       </c>
+      <c r="K23" s="1">
+        <v>1</v>
+      </c>
       <c r="AK23" s="1">
         <f>A23*AK$3</f>
         <v>2147483648</v>
@@ -3407,7 +3453,7 @@
       </c>
       <c r="AU23" s="1">
         <f>K23*AU$3</f>
-        <v>0</v>
+        <v>2097152</v>
       </c>
       <c r="AV23" s="1">
         <f>L23*AV$3</f>
@@ -3494,8 +3540,8 @@
         <v>0</v>
       </c>
       <c r="BR23" s="1" t="str">
-        <f>"0x" &amp; DEC2HEX(SUM(AK23:BP23)) &amp; ", "</f>
-        <v xml:space="preserve">0xAE000000, </v>
+        <f>"0x" &amp; DEC2HEX(SUM(AK23:BP23)) &amp; "U, "</f>
+        <v xml:space="preserve">0xAE200000U, </v>
       </c>
     </row>
     <row r="24" spans="1:70" x14ac:dyDescent="0.25">
@@ -3508,6 +3554,15 @@
       <c r="G24" s="1">
         <v>1</v>
       </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
       <c r="AK24" s="1">
         <f t="shared" ref="AK24:AK27" si="99">A24*AK$3</f>
         <v>2147483648</v>
@@ -3541,104 +3596,104 @@
         <v>0</v>
       </c>
       <c r="AS24" s="1">
-        <f t="shared" ref="AS24:AS27" si="107">I24*AS$3</f>
-        <v>0</v>
+        <f>I24*AS$3</f>
+        <v>8388608</v>
       </c>
       <c r="AT24" s="1">
-        <f t="shared" ref="AT24:AT27" si="108">J24*AT$3</f>
-        <v>0</v>
+        <f>J24*AT$3</f>
+        <v>4194304</v>
       </c>
       <c r="AU24" s="1">
-        <f t="shared" ref="AU24:AU27" si="109">K24*AU$3</f>
-        <v>0</v>
+        <f>K24*AU$3</f>
+        <v>2097152</v>
       </c>
       <c r="AV24" s="1">
-        <f t="shared" ref="AV24:AV27" si="110">L24*AV$3</f>
+        <f t="shared" ref="AV24:AV27" si="107">L24*AV$3</f>
         <v>0</v>
       </c>
       <c r="AW24" s="1">
-        <f t="shared" ref="AW24:AW27" si="111">M24*AW$3</f>
+        <f t="shared" ref="AW24:AW27" si="108">M24*AW$3</f>
         <v>0</v>
       </c>
       <c r="AX24" s="1">
-        <f t="shared" ref="AX24:AX27" si="112">N24*AX$3</f>
+        <f t="shared" ref="AX24:AX27" si="109">N24*AX$3</f>
         <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <f t="shared" ref="AY24:AY27" si="113">O24*AY$3</f>
+        <f t="shared" ref="AY24:AY27" si="110">O24*AY$3</f>
         <v>0</v>
       </c>
       <c r="AZ24" s="1">
-        <f t="shared" ref="AZ24:AZ27" si="114">P24*AZ$3</f>
+        <f t="shared" ref="AZ24:AZ27" si="111">P24*AZ$3</f>
         <v>0</v>
       </c>
       <c r="BA24" s="1">
-        <f t="shared" ref="BA24:BA27" si="115">Q24*BA$3</f>
+        <f t="shared" ref="BA24:BA27" si="112">Q24*BA$3</f>
         <v>0</v>
       </c>
       <c r="BB24" s="1">
-        <f t="shared" ref="BB24:BB27" si="116">R24*BB$3</f>
+        <f t="shared" ref="BB24:BB27" si="113">R24*BB$3</f>
         <v>0</v>
       </c>
       <c r="BC24" s="1">
-        <f t="shared" ref="BC24:BC27" si="117">S24*BC$3</f>
+        <f t="shared" ref="BC24:BC27" si="114">S24*BC$3</f>
         <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <f t="shared" ref="BD24:BD27" si="118">T24*BD$3</f>
+        <f t="shared" ref="BD24:BD27" si="115">T24*BD$3</f>
         <v>0</v>
       </c>
       <c r="BE24" s="1">
-        <f t="shared" ref="BE24:BE27" si="119">U24*BE$3</f>
+        <f t="shared" ref="BE24:BE27" si="116">U24*BE$3</f>
         <v>0</v>
       </c>
       <c r="BF24" s="1">
-        <f t="shared" ref="BF24:BF27" si="120">V24*BF$3</f>
+        <f t="shared" ref="BF24:BF27" si="117">V24*BF$3</f>
         <v>0</v>
       </c>
       <c r="BG24" s="1">
-        <f t="shared" ref="BG24:BG27" si="121">W24*BG$3</f>
+        <f t="shared" ref="BG24:BG27" si="118">W24*BG$3</f>
         <v>0</v>
       </c>
       <c r="BH24" s="1">
-        <f t="shared" ref="BH24:BH27" si="122">X24*BH$3</f>
+        <f t="shared" ref="BH24:BH27" si="119">X24*BH$3</f>
         <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <f t="shared" ref="BI24:BI27" si="123">Y24*BI$3</f>
+        <f t="shared" ref="BI24:BI27" si="120">Y24*BI$3</f>
         <v>0</v>
       </c>
       <c r="BJ24" s="1">
-        <f t="shared" ref="BJ24:BJ27" si="124">Z24*BJ$3</f>
+        <f t="shared" ref="BJ24:BJ27" si="121">Z24*BJ$3</f>
         <v>0</v>
       </c>
       <c r="BK24" s="1">
-        <f t="shared" ref="BK24:BK27" si="125">AA24*BK$3</f>
+        <f t="shared" ref="BK24:BK27" si="122">AA24*BK$3</f>
         <v>0</v>
       </c>
       <c r="BL24" s="1">
-        <f t="shared" ref="BL24:BL27" si="126">AB24*BL$3</f>
+        <f t="shared" ref="BL24:BL27" si="123">AB24*BL$3</f>
         <v>0</v>
       </c>
       <c r="BM24" s="1">
-        <f t="shared" ref="BM24:BM27" si="127">AC24*BM$3</f>
+        <f t="shared" ref="BM24:BM27" si="124">AC24*BM$3</f>
         <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <f t="shared" ref="BN24:BN27" si="128">AD24*BN$3</f>
+        <f t="shared" ref="BN24:BN27" si="125">AD24*BN$3</f>
         <v>0</v>
       </c>
       <c r="BO24" s="1">
-        <f t="shared" ref="BO24:BO27" si="129">AE24*BO$3</f>
+        <f t="shared" ref="BO24:BO27" si="126">AE24*BO$3</f>
         <v>0</v>
       </c>
       <c r="BP24" s="1">
-        <f t="shared" ref="BP24:BP27" si="130">AF24*BP$3</f>
+        <f t="shared" ref="BP24:BP27" si="127">AF24*BP$3</f>
         <v>0</v>
       </c>
       <c r="BR24" s="1" t="str">
-        <f t="shared" ref="BR24:BR27" si="131">"0x" &amp; DEC2HEX(SUM(AK24:BP24)) &amp; ", "</f>
-        <v xml:space="preserve">0xA2000000, </v>
+        <f t="shared" ref="BR24:BR27" si="128">"0x" &amp; DEC2HEX(SUM(AK24:BP24)) &amp; "U, "</f>
+        <v xml:space="preserve">0xA2E00000U, </v>
       </c>
     </row>
     <row r="25" spans="1:70" x14ac:dyDescent="0.25">
@@ -3648,6 +3703,15 @@
       <c r="F25" s="1">
         <v>1</v>
       </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
       <c r="AK25" s="1">
         <f t="shared" si="99"/>
         <v>0</v>
@@ -3681,104 +3745,104 @@
         <v>0</v>
       </c>
       <c r="AS25" s="1">
+        <f>I25*AS$3</f>
+        <v>8388608</v>
+      </c>
+      <c r="AT25" s="1">
+        <f>J25*AT$3</f>
+        <v>4194304</v>
+      </c>
+      <c r="AU25" s="1">
+        <f>K25*AU$3</f>
+        <v>2097152</v>
+      </c>
+      <c r="AV25" s="1">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="AT25" s="1">
+      <c r="AW25" s="1">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="AU25" s="1">
+      <c r="AX25" s="1">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="AV25" s="1">
+      <c r="AY25" s="1">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="AW25" s="1">
+      <c r="AZ25" s="1">
         <f t="shared" si="111"/>
         <v>0</v>
       </c>
-      <c r="AX25" s="1">
+      <c r="BA25" s="1">
         <f t="shared" si="112"/>
         <v>0</v>
       </c>
-      <c r="AY25" s="1">
+      <c r="BB25" s="1">
         <f t="shared" si="113"/>
         <v>0</v>
       </c>
-      <c r="AZ25" s="1">
+      <c r="BC25" s="1">
         <f t="shared" si="114"/>
         <v>0</v>
       </c>
-      <c r="BA25" s="1">
+      <c r="BD25" s="1">
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
-      <c r="BB25" s="1">
+      <c r="BE25" s="1">
         <f t="shared" si="116"/>
         <v>0</v>
       </c>
-      <c r="BC25" s="1">
+      <c r="BF25" s="1">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="BD25" s="1">
+      <c r="BG25" s="1">
         <f t="shared" si="118"/>
         <v>0</v>
       </c>
-      <c r="BE25" s="1">
+      <c r="BH25" s="1">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="BF25" s="1">
+      <c r="BI25" s="1">
         <f t="shared" si="120"/>
         <v>0</v>
       </c>
-      <c r="BG25" s="1">
+      <c r="BJ25" s="1">
         <f t="shared" si="121"/>
         <v>0</v>
       </c>
-      <c r="BH25" s="1">
+      <c r="BK25" s="1">
         <f t="shared" si="122"/>
         <v>0</v>
       </c>
-      <c r="BI25" s="1">
+      <c r="BL25" s="1">
         <f t="shared" si="123"/>
         <v>0</v>
       </c>
-      <c r="BJ25" s="1">
+      <c r="BM25" s="1">
         <f t="shared" si="124"/>
         <v>0</v>
       </c>
-      <c r="BK25" s="1">
+      <c r="BN25" s="1">
         <f t="shared" si="125"/>
         <v>0</v>
       </c>
-      <c r="BL25" s="1">
+      <c r="BO25" s="1">
         <f t="shared" si="126"/>
         <v>0</v>
       </c>
-      <c r="BM25" s="1">
+      <c r="BP25" s="1">
         <f t="shared" si="127"/>
         <v>0</v>
       </c>
-      <c r="BN25" s="1">
+      <c r="BR25" s="1" t="str">
         <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
-      <c r="BO25" s="1">
-        <f t="shared" si="129"/>
-        <v>0</v>
-      </c>
-      <c r="BP25" s="1">
-        <f t="shared" si="130"/>
-        <v>0</v>
-      </c>
-      <c r="BR25" s="1" t="str">
-        <f t="shared" si="131"/>
-        <v xml:space="preserve">0x44000000, </v>
+        <v xml:space="preserve">0x44E00000U, </v>
       </c>
     </row>
     <row r="26" spans="1:70" x14ac:dyDescent="0.25">
@@ -3788,6 +3852,9 @@
       <c r="E26" s="1">
         <v>1</v>
       </c>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
       <c r="AK26" s="1">
         <f t="shared" si="99"/>
         <v>0</v>
@@ -3821,104 +3888,104 @@
         <v>0</v>
       </c>
       <c r="AS26" s="1">
+        <f>I26*AS$3</f>
+        <v>8388608</v>
+      </c>
+      <c r="AT26" s="1">
+        <f>J26*AT$3</f>
+        <v>0</v>
+      </c>
+      <c r="AU26" s="1">
+        <f>K26*AU$3</f>
+        <v>0</v>
+      </c>
+      <c r="AV26" s="1">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="AT26" s="1">
+      <c r="AW26" s="1">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="AU26" s="1">
+      <c r="AX26" s="1">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="AV26" s="1">
+      <c r="AY26" s="1">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="AW26" s="1">
+      <c r="AZ26" s="1">
         <f t="shared" si="111"/>
         <v>0</v>
       </c>
-      <c r="AX26" s="1">
+      <c r="BA26" s="1">
         <f t="shared" si="112"/>
         <v>0</v>
       </c>
-      <c r="AY26" s="1">
+      <c r="BB26" s="1">
         <f t="shared" si="113"/>
         <v>0</v>
       </c>
-      <c r="AZ26" s="1">
+      <c r="BC26" s="1">
         <f t="shared" si="114"/>
         <v>0</v>
       </c>
-      <c r="BA26" s="1">
+      <c r="BD26" s="1">
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
-      <c r="BB26" s="1">
+      <c r="BE26" s="1">
         <f t="shared" si="116"/>
         <v>0</v>
       </c>
-      <c r="BC26" s="1">
+      <c r="BF26" s="1">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="BD26" s="1">
+      <c r="BG26" s="1">
         <f t="shared" si="118"/>
         <v>0</v>
       </c>
-      <c r="BE26" s="1">
+      <c r="BH26" s="1">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="BF26" s="1">
+      <c r="BI26" s="1">
         <f t="shared" si="120"/>
         <v>0</v>
       </c>
-      <c r="BG26" s="1">
+      <c r="BJ26" s="1">
         <f t="shared" si="121"/>
         <v>0</v>
       </c>
-      <c r="BH26" s="1">
+      <c r="BK26" s="1">
         <f t="shared" si="122"/>
         <v>0</v>
       </c>
-      <c r="BI26" s="1">
+      <c r="BL26" s="1">
         <f t="shared" si="123"/>
         <v>0</v>
       </c>
-      <c r="BJ26" s="1">
+      <c r="BM26" s="1">
         <f t="shared" si="124"/>
         <v>0</v>
       </c>
-      <c r="BK26" s="1">
+      <c r="BN26" s="1">
         <f t="shared" si="125"/>
         <v>0</v>
       </c>
-      <c r="BL26" s="1">
+      <c r="BO26" s="1">
         <f t="shared" si="126"/>
         <v>0</v>
       </c>
-      <c r="BM26" s="1">
+      <c r="BP26" s="1">
         <f t="shared" si="127"/>
         <v>0</v>
       </c>
-      <c r="BN26" s="1">
+      <c r="BR26" s="1" t="str">
         <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
-      <c r="BO26" s="1">
-        <f t="shared" si="129"/>
-        <v>0</v>
-      </c>
-      <c r="BP26" s="1">
-        <f t="shared" si="130"/>
-        <v>0</v>
-      </c>
-      <c r="BR26" s="1" t="str">
-        <f t="shared" si="131"/>
-        <v xml:space="preserve">0x48000000, </v>
+        <v xml:space="preserve">0x48800000U, </v>
       </c>
     </row>
     <row r="27" spans="1:70" x14ac:dyDescent="0.25">
@@ -3967,104 +4034,109 @@
         <v>0</v>
       </c>
       <c r="AS27" s="1">
+        <f t="shared" ref="AS27" si="129">I27*AS$3</f>
+        <v>0</v>
+      </c>
+      <c r="AT27" s="1">
+        <f t="shared" ref="AT27" si="130">J27*AT$3</f>
+        <v>0</v>
+      </c>
+      <c r="AU27" s="1">
+        <f t="shared" ref="AU27" si="131">K27*AU$3</f>
+        <v>0</v>
+      </c>
+      <c r="AV27" s="1">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="AT27" s="1">
+      <c r="AW27" s="1">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="AU27" s="1">
+      <c r="AX27" s="1">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="AV27" s="1">
+      <c r="AY27" s="1">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="AW27" s="1">
+      <c r="AZ27" s="1">
         <f t="shared" si="111"/>
         <v>0</v>
       </c>
-      <c r="AX27" s="1">
+      <c r="BA27" s="1">
         <f t="shared" si="112"/>
         <v>0</v>
       </c>
-      <c r="AY27" s="1">
+      <c r="BB27" s="1">
         <f t="shared" si="113"/>
         <v>0</v>
       </c>
-      <c r="AZ27" s="1">
+      <c r="BC27" s="1">
         <f t="shared" si="114"/>
         <v>0</v>
       </c>
-      <c r="BA27" s="1">
+      <c r="BD27" s="1">
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
-      <c r="BB27" s="1">
+      <c r="BE27" s="1">
         <f t="shared" si="116"/>
         <v>0</v>
       </c>
-      <c r="BC27" s="1">
+      <c r="BF27" s="1">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="BD27" s="1">
+      <c r="BG27" s="1">
         <f t="shared" si="118"/>
         <v>0</v>
       </c>
-      <c r="BE27" s="1">
+      <c r="BH27" s="1">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="BF27" s="1">
+      <c r="BI27" s="1">
         <f t="shared" si="120"/>
         <v>0</v>
       </c>
-      <c r="BG27" s="1">
+      <c r="BJ27" s="1">
         <f t="shared" si="121"/>
         <v>0</v>
       </c>
-      <c r="BH27" s="1">
+      <c r="BK27" s="1">
         <f t="shared" si="122"/>
         <v>0</v>
       </c>
-      <c r="BI27" s="1">
+      <c r="BL27" s="1">
         <f t="shared" si="123"/>
         <v>0</v>
       </c>
-      <c r="BJ27" s="1">
+      <c r="BM27" s="1">
         <f t="shared" si="124"/>
         <v>0</v>
       </c>
-      <c r="BK27" s="1">
+      <c r="BN27" s="1">
         <f t="shared" si="125"/>
         <v>0</v>
       </c>
-      <c r="BL27" s="1">
+      <c r="BO27" s="1">
         <f t="shared" si="126"/>
         <v>0</v>
       </c>
-      <c r="BM27" s="1">
+      <c r="BP27" s="1">
         <f t="shared" si="127"/>
         <v>0</v>
       </c>
-      <c r="BN27" s="1">
+      <c r="BR27" s="1" t="str">
         <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
-      <c r="BO27" s="1">
-        <f t="shared" si="129"/>
-        <v>0</v>
-      </c>
-      <c r="BP27" s="1">
-        <f t="shared" si="130"/>
-        <v>0</v>
-      </c>
-      <c r="BR27" s="1" t="str">
-        <f t="shared" si="131"/>
-        <v xml:space="preserve">0x4E000000, </v>
+        <v xml:space="preserve">0x4E000000U, </v>
+      </c>
+    </row>
+    <row r="28" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BR28" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:70" x14ac:dyDescent="0.25">
@@ -4263,8 +4335,8 @@
         <v>0</v>
       </c>
       <c r="BR29" s="1" t="str">
-        <f>"0x" &amp; DEC2HEX(SUM(AK29:BP29)) &amp; ", "</f>
-        <v xml:space="preserve">0xECEEAEEE, </v>
+        <f>"0x" &amp; DEC2HEX(SUM(AK29:BP29)) &amp; "U, "</f>
+        <v xml:space="preserve">0xECEEAEEEU, </v>
       </c>
     </row>
     <row r="30" spans="1:70" x14ac:dyDescent="0.25">
@@ -4427,8 +4499,8 @@
         <v>0</v>
       </c>
       <c r="BR30" s="1" t="str">
-        <f t="shared" ref="BR30:BR33" si="164">"0x" &amp; DEC2HEX(SUM(AK30:BP30)) &amp; ", "</f>
-        <v xml:space="preserve">0xA422A882, </v>
+        <f t="shared" ref="BR30:BR33" si="164">"0x" &amp; DEC2HEX(SUM(AK30:BP30)) &amp; "U, "</f>
+        <v xml:space="preserve">0xA422A882U, </v>
       </c>
     </row>
     <row r="31" spans="1:70" x14ac:dyDescent="0.25">
@@ -4616,7 +4688,7 @@
       </c>
       <c r="BR31" s="1" t="str">
         <f t="shared" si="164"/>
-        <v xml:space="preserve">0xA4E6EEE2, </v>
+        <v xml:space="preserve">0xA4E6EEE2U, </v>
       </c>
     </row>
     <row r="32" spans="1:70" x14ac:dyDescent="0.25">
@@ -4780,7 +4852,7 @@
       </c>
       <c r="BR32" s="1" t="str">
         <f t="shared" si="164"/>
-        <v xml:space="preserve">0xA48222A2, </v>
+        <v xml:space="preserve">0xA48222A2U, </v>
       </c>
     </row>
     <row r="33" spans="1:70" x14ac:dyDescent="0.25">
@@ -4974,7 +5046,12 @@
       </c>
       <c r="BR33" s="1" t="str">
         <f t="shared" si="164"/>
-        <v xml:space="preserve">0xEEEE2EE2, </v>
+        <v xml:space="preserve">0xEEEE2EE2U, </v>
+      </c>
+    </row>
+    <row r="34" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BR34" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:70" x14ac:dyDescent="0.25">
@@ -5125,8 +5202,8 @@
         <v>0</v>
       </c>
       <c r="BR35" s="1" t="str">
-        <f>"0x" &amp; DEC2HEX(SUM(AK35:BP35)) &amp; ", "</f>
-        <v xml:space="preserve">0xEE000000, </v>
+        <f>"0x" &amp; DEC2HEX(SUM(AK35:BP35)) &amp; "U, "</f>
+        <v xml:space="preserve">0xEE000000U, </v>
       </c>
     </row>
     <row r="36" spans="1:70" x14ac:dyDescent="0.25">
@@ -5175,104 +5252,104 @@
         <v>0</v>
       </c>
       <c r="AS36" s="1">
-        <f t="shared" ref="AS36:AS39" si="173">I36*AS$3</f>
+        <f>I36*AS$3</f>
         <v>0</v>
       </c>
       <c r="AT36" s="1">
-        <f t="shared" ref="AT36:AT39" si="174">J36*AT$3</f>
+        <f>J36*AT$3</f>
         <v>0</v>
       </c>
       <c r="AU36" s="1">
-        <f t="shared" ref="AU36:AU39" si="175">K36*AU$3</f>
+        <f>K36*AU$3</f>
         <v>0</v>
       </c>
       <c r="AV36" s="1">
-        <f t="shared" ref="AV36:AV39" si="176">L36*AV$3</f>
+        <f t="shared" ref="AV36:AV39" si="173">L36*AV$3</f>
         <v>0</v>
       </c>
       <c r="AW36" s="1">
-        <f t="shared" ref="AW36:AW39" si="177">M36*AW$3</f>
+        <f t="shared" ref="AW36:AW39" si="174">M36*AW$3</f>
         <v>0</v>
       </c>
       <c r="AX36" s="1">
-        <f t="shared" ref="AX36:AX39" si="178">N36*AX$3</f>
+        <f t="shared" ref="AX36:AX39" si="175">N36*AX$3</f>
         <v>0</v>
       </c>
       <c r="AY36" s="1">
-        <f t="shared" ref="AY36:AY39" si="179">O36*AY$3</f>
+        <f t="shared" ref="AY36:AY39" si="176">O36*AY$3</f>
         <v>0</v>
       </c>
       <c r="AZ36" s="1">
-        <f t="shared" ref="AZ36:AZ39" si="180">P36*AZ$3</f>
+        <f t="shared" ref="AZ36:AZ39" si="177">P36*AZ$3</f>
         <v>0</v>
       </c>
       <c r="BA36" s="1">
-        <f t="shared" ref="BA36:BA39" si="181">Q36*BA$3</f>
+        <f t="shared" ref="BA36:BA39" si="178">Q36*BA$3</f>
         <v>0</v>
       </c>
       <c r="BB36" s="1">
-        <f t="shared" ref="BB36:BB39" si="182">R36*BB$3</f>
+        <f t="shared" ref="BB36:BB39" si="179">R36*BB$3</f>
         <v>0</v>
       </c>
       <c r="BC36" s="1">
-        <f t="shared" ref="BC36:BC39" si="183">S36*BC$3</f>
+        <f t="shared" ref="BC36:BC39" si="180">S36*BC$3</f>
         <v>0</v>
       </c>
       <c r="BD36" s="1">
-        <f t="shared" ref="BD36:BD39" si="184">T36*BD$3</f>
+        <f t="shared" ref="BD36:BD39" si="181">T36*BD$3</f>
         <v>0</v>
       </c>
       <c r="BE36" s="1">
-        <f t="shared" ref="BE36:BE39" si="185">U36*BE$3</f>
+        <f t="shared" ref="BE36:BE39" si="182">U36*BE$3</f>
         <v>0</v>
       </c>
       <c r="BF36" s="1">
-        <f t="shared" ref="BF36:BF39" si="186">V36*BF$3</f>
+        <f t="shared" ref="BF36:BF39" si="183">V36*BF$3</f>
         <v>0</v>
       </c>
       <c r="BG36" s="1">
-        <f t="shared" ref="BG36:BG39" si="187">W36*BG$3</f>
+        <f t="shared" ref="BG36:BG39" si="184">W36*BG$3</f>
         <v>0</v>
       </c>
       <c r="BH36" s="1">
-        <f t="shared" ref="BH36:BH39" si="188">X36*BH$3</f>
+        <f t="shared" ref="BH36:BH39" si="185">X36*BH$3</f>
         <v>0</v>
       </c>
       <c r="BI36" s="1">
-        <f t="shared" ref="BI36:BI39" si="189">Y36*BI$3</f>
+        <f t="shared" ref="BI36:BI39" si="186">Y36*BI$3</f>
         <v>0</v>
       </c>
       <c r="BJ36" s="1">
-        <f t="shared" ref="BJ36:BJ39" si="190">Z36*BJ$3</f>
+        <f t="shared" ref="BJ36:BJ39" si="187">Z36*BJ$3</f>
         <v>0</v>
       </c>
       <c r="BK36" s="1">
-        <f t="shared" ref="BK36:BK39" si="191">AA36*BK$3</f>
+        <f t="shared" ref="BK36:BK39" si="188">AA36*BK$3</f>
         <v>0</v>
       </c>
       <c r="BL36" s="1">
-        <f t="shared" ref="BL36:BL39" si="192">AB36*BL$3</f>
+        <f t="shared" ref="BL36:BL39" si="189">AB36*BL$3</f>
         <v>0</v>
       </c>
       <c r="BM36" s="1">
-        <f t="shared" ref="BM36:BM39" si="193">AC36*BM$3</f>
+        <f t="shared" ref="BM36:BM39" si="190">AC36*BM$3</f>
         <v>0</v>
       </c>
       <c r="BN36" s="1">
-        <f t="shared" ref="BN36:BN39" si="194">AD36*BN$3</f>
+        <f t="shared" ref="BN36:BN39" si="191">AD36*BN$3</f>
         <v>0</v>
       </c>
       <c r="BO36" s="1">
-        <f t="shared" ref="BO36:BO39" si="195">AE36*BO$3</f>
+        <f t="shared" ref="BO36:BO39" si="192">AE36*BO$3</f>
         <v>0</v>
       </c>
       <c r="BP36" s="1">
-        <f t="shared" ref="BP36:BP39" si="196">AF36*BP$3</f>
+        <f t="shared" ref="BP36:BP39" si="193">AF36*BP$3</f>
         <v>0</v>
       </c>
       <c r="BR36" s="1" t="str">
-        <f t="shared" ref="BR36:BR39" si="197">"0x" &amp; DEC2HEX(SUM(AK36:BP36)) &amp; ", "</f>
-        <v xml:space="preserve">0xAA000000, </v>
+        <f t="shared" ref="BR36:BR39" si="194">"0x" &amp; DEC2HEX(SUM(AK36:BP36)) &amp; "U, "</f>
+        <v xml:space="preserve">0xAA000000U, </v>
       </c>
     </row>
     <row r="37" spans="1:70" x14ac:dyDescent="0.25">
@@ -5294,6 +5371,15 @@
       <c r="G37" s="1">
         <v>1</v>
       </c>
+      <c r="I37" s="1">
+        <v>1</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1</v>
+      </c>
+      <c r="K37" s="1">
+        <v>1</v>
+      </c>
       <c r="AK37" s="1">
         <f t="shared" si="165"/>
         <v>2147483648</v>
@@ -5327,104 +5413,104 @@
         <v>0</v>
       </c>
       <c r="AS37" s="1">
+        <f>I37*AS$3</f>
+        <v>8388608</v>
+      </c>
+      <c r="AT37" s="1">
+        <f>J37*AT$3</f>
+        <v>4194304</v>
+      </c>
+      <c r="AU37" s="1">
+        <f>K37*AU$3</f>
+        <v>2097152</v>
+      </c>
+      <c r="AV37" s="1">
         <f t="shared" si="173"/>
         <v>0</v>
       </c>
-      <c r="AT37" s="1">
+      <c r="AW37" s="1">
         <f t="shared" si="174"/>
         <v>0</v>
       </c>
-      <c r="AU37" s="1">
+      <c r="AX37" s="1">
         <f t="shared" si="175"/>
         <v>0</v>
       </c>
-      <c r="AV37" s="1">
+      <c r="AY37" s="1">
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="AW37" s="1">
+      <c r="AZ37" s="1">
         <f t="shared" si="177"/>
         <v>0</v>
       </c>
-      <c r="AX37" s="1">
+      <c r="BA37" s="1">
         <f t="shared" si="178"/>
         <v>0</v>
       </c>
-      <c r="AY37" s="1">
+      <c r="BB37" s="1">
         <f t="shared" si="179"/>
         <v>0</v>
       </c>
-      <c r="AZ37" s="1">
+      <c r="BC37" s="1">
         <f t="shared" si="180"/>
         <v>0</v>
       </c>
-      <c r="BA37" s="1">
+      <c r="BD37" s="1">
         <f t="shared" si="181"/>
         <v>0</v>
       </c>
-      <c r="BB37" s="1">
+      <c r="BE37" s="1">
         <f t="shared" si="182"/>
         <v>0</v>
       </c>
-      <c r="BC37" s="1">
+      <c r="BF37" s="1">
         <f t="shared" si="183"/>
         <v>0</v>
       </c>
-      <c r="BD37" s="1">
+      <c r="BG37" s="1">
         <f t="shared" si="184"/>
         <v>0</v>
       </c>
-      <c r="BE37" s="1">
+      <c r="BH37" s="1">
         <f t="shared" si="185"/>
         <v>0</v>
       </c>
-      <c r="BF37" s="1">
+      <c r="BI37" s="1">
         <f t="shared" si="186"/>
         <v>0</v>
       </c>
-      <c r="BG37" s="1">
+      <c r="BJ37" s="1">
         <f t="shared" si="187"/>
         <v>0</v>
       </c>
-      <c r="BH37" s="1">
+      <c r="BK37" s="1">
         <f t="shared" si="188"/>
         <v>0</v>
       </c>
-      <c r="BI37" s="1">
+      <c r="BL37" s="1">
         <f t="shared" si="189"/>
         <v>0</v>
       </c>
-      <c r="BJ37" s="1">
+      <c r="BM37" s="1">
         <f t="shared" si="190"/>
         <v>0</v>
       </c>
-      <c r="BK37" s="1">
+      <c r="BN37" s="1">
         <f t="shared" si="191"/>
         <v>0</v>
       </c>
-      <c r="BL37" s="1">
+      <c r="BO37" s="1">
         <f t="shared" si="192"/>
         <v>0</v>
       </c>
-      <c r="BM37" s="1">
+      <c r="BP37" s="1">
         <f t="shared" si="193"/>
         <v>0</v>
       </c>
-      <c r="BN37" s="1">
+      <c r="BR37" s="1" t="str">
         <f t="shared" si="194"/>
-        <v>0</v>
-      </c>
-      <c r="BO37" s="1">
-        <f t="shared" si="195"/>
-        <v>0</v>
-      </c>
-      <c r="BP37" s="1">
-        <f t="shared" si="196"/>
-        <v>0</v>
-      </c>
-      <c r="BR37" s="1" t="str">
-        <f t="shared" si="197"/>
-        <v xml:space="preserve">0xEE000000, </v>
+        <v xml:space="preserve">0xEEE00000U, </v>
       </c>
     </row>
     <row r="38" spans="1:70" x14ac:dyDescent="0.25">
@@ -5470,104 +5556,104 @@
         <v>0</v>
       </c>
       <c r="AS38" s="1">
+        <f>I38*AS$3</f>
+        <v>0</v>
+      </c>
+      <c r="AT38" s="1">
+        <f>J38*AT$3</f>
+        <v>0</v>
+      </c>
+      <c r="AU38" s="1">
+        <f>K38*AU$3</f>
+        <v>0</v>
+      </c>
+      <c r="AV38" s="1">
         <f t="shared" si="173"/>
         <v>0</v>
       </c>
-      <c r="AT38" s="1">
+      <c r="AW38" s="1">
         <f t="shared" si="174"/>
         <v>0</v>
       </c>
-      <c r="AU38" s="1">
+      <c r="AX38" s="1">
         <f t="shared" si="175"/>
         <v>0</v>
       </c>
-      <c r="AV38" s="1">
+      <c r="AY38" s="1">
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="AW38" s="1">
+      <c r="AZ38" s="1">
         <f t="shared" si="177"/>
         <v>0</v>
       </c>
-      <c r="AX38" s="1">
+      <c r="BA38" s="1">
         <f t="shared" si="178"/>
         <v>0</v>
       </c>
-      <c r="AY38" s="1">
+      <c r="BB38" s="1">
         <f t="shared" si="179"/>
         <v>0</v>
       </c>
-      <c r="AZ38" s="1">
+      <c r="BC38" s="1">
         <f t="shared" si="180"/>
         <v>0</v>
       </c>
-      <c r="BA38" s="1">
+      <c r="BD38" s="1">
         <f t="shared" si="181"/>
         <v>0</v>
       </c>
-      <c r="BB38" s="1">
+      <c r="BE38" s="1">
         <f t="shared" si="182"/>
         <v>0</v>
       </c>
-      <c r="BC38" s="1">
+      <c r="BF38" s="1">
         <f t="shared" si="183"/>
         <v>0</v>
       </c>
-      <c r="BD38" s="1">
+      <c r="BG38" s="1">
         <f t="shared" si="184"/>
         <v>0</v>
       </c>
-      <c r="BE38" s="1">
+      <c r="BH38" s="1">
         <f t="shared" si="185"/>
         <v>0</v>
       </c>
-      <c r="BF38" s="1">
+      <c r="BI38" s="1">
         <f t="shared" si="186"/>
         <v>0</v>
       </c>
-      <c r="BG38" s="1">
+      <c r="BJ38" s="1">
         <f t="shared" si="187"/>
         <v>0</v>
       </c>
-      <c r="BH38" s="1">
+      <c r="BK38" s="1">
         <f t="shared" si="188"/>
         <v>0</v>
       </c>
-      <c r="BI38" s="1">
+      <c r="BL38" s="1">
         <f t="shared" si="189"/>
         <v>0</v>
       </c>
-      <c r="BJ38" s="1">
+      <c r="BM38" s="1">
         <f t="shared" si="190"/>
         <v>0</v>
       </c>
-      <c r="BK38" s="1">
+      <c r="BN38" s="1">
         <f t="shared" si="191"/>
         <v>0</v>
       </c>
-      <c r="BL38" s="1">
+      <c r="BO38" s="1">
         <f t="shared" si="192"/>
         <v>0</v>
       </c>
-      <c r="BM38" s="1">
+      <c r="BP38" s="1">
         <f t="shared" si="193"/>
         <v>0</v>
       </c>
-      <c r="BN38" s="1">
+      <c r="BR38" s="1" t="str">
         <f t="shared" si="194"/>
-        <v>0</v>
-      </c>
-      <c r="BO38" s="1">
-        <f t="shared" si="195"/>
-        <v>0</v>
-      </c>
-      <c r="BP38" s="1">
-        <f t="shared" si="196"/>
-        <v>0</v>
-      </c>
-      <c r="BR38" s="1" t="str">
-        <f t="shared" si="197"/>
-        <v xml:space="preserve">0xA2000000, </v>
+        <v xml:space="preserve">0xA2000000U, </v>
       </c>
     </row>
     <row r="39" spans="1:70" x14ac:dyDescent="0.25">
@@ -5622,104 +5708,104 @@
         <v>0</v>
       </c>
       <c r="AS39" s="1">
+        <f t="shared" ref="AS39" si="195">I39*AS$3</f>
+        <v>0</v>
+      </c>
+      <c r="AT39" s="1">
+        <f t="shared" ref="AT39" si="196">J39*AT$3</f>
+        <v>0</v>
+      </c>
+      <c r="AU39" s="1">
+        <f t="shared" ref="AU39" si="197">K39*AU$3</f>
+        <v>0</v>
+      </c>
+      <c r="AV39" s="1">
         <f t="shared" si="173"/>
         <v>0</v>
       </c>
-      <c r="AT39" s="1">
+      <c r="AW39" s="1">
         <f t="shared" si="174"/>
         <v>0</v>
       </c>
-      <c r="AU39" s="1">
+      <c r="AX39" s="1">
         <f t="shared" si="175"/>
         <v>0</v>
       </c>
-      <c r="AV39" s="1">
+      <c r="AY39" s="1">
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="AW39" s="1">
+      <c r="AZ39" s="1">
         <f t="shared" si="177"/>
         <v>0</v>
       </c>
-      <c r="AX39" s="1">
+      <c r="BA39" s="1">
         <f t="shared" si="178"/>
         <v>0</v>
       </c>
-      <c r="AY39" s="1">
+      <c r="BB39" s="1">
         <f t="shared" si="179"/>
         <v>0</v>
       </c>
-      <c r="AZ39" s="1">
+      <c r="BC39" s="1">
         <f t="shared" si="180"/>
         <v>0</v>
       </c>
-      <c r="BA39" s="1">
+      <c r="BD39" s="1">
         <f t="shared" si="181"/>
         <v>0</v>
       </c>
-      <c r="BB39" s="1">
+      <c r="BE39" s="1">
         <f t="shared" si="182"/>
         <v>0</v>
       </c>
-      <c r="BC39" s="1">
+      <c r="BF39" s="1">
         <f t="shared" si="183"/>
         <v>0</v>
       </c>
-      <c r="BD39" s="1">
+      <c r="BG39" s="1">
         <f t="shared" si="184"/>
         <v>0</v>
       </c>
-      <c r="BE39" s="1">
+      <c r="BH39" s="1">
         <f t="shared" si="185"/>
         <v>0</v>
       </c>
-      <c r="BF39" s="1">
+      <c r="BI39" s="1">
         <f t="shared" si="186"/>
         <v>0</v>
       </c>
-      <c r="BG39" s="1">
+      <c r="BJ39" s="1">
         <f t="shared" si="187"/>
         <v>0</v>
       </c>
-      <c r="BH39" s="1">
+      <c r="BK39" s="1">
         <f t="shared" si="188"/>
         <v>0</v>
       </c>
-      <c r="BI39" s="1">
+      <c r="BL39" s="1">
         <f t="shared" si="189"/>
         <v>0</v>
       </c>
-      <c r="BJ39" s="1">
+      <c r="BM39" s="1">
         <f t="shared" si="190"/>
         <v>0</v>
       </c>
-      <c r="BK39" s="1">
+      <c r="BN39" s="1">
         <f t="shared" si="191"/>
         <v>0</v>
       </c>
-      <c r="BL39" s="1">
+      <c r="BO39" s="1">
         <f t="shared" si="192"/>
         <v>0</v>
       </c>
-      <c r="BM39" s="1">
+      <c r="BP39" s="1">
         <f t="shared" si="193"/>
         <v>0</v>
       </c>
-      <c r="BN39" s="1">
+      <c r="BR39" s="1" t="str">
         <f t="shared" si="194"/>
-        <v>0</v>
-      </c>
-      <c r="BO39" s="1">
-        <f t="shared" si="195"/>
-        <v>0</v>
-      </c>
-      <c r="BP39" s="1">
-        <f t="shared" si="196"/>
-        <v>0</v>
-      </c>
-      <c r="BR39" s="1" t="str">
-        <f t="shared" si="197"/>
-        <v xml:space="preserve">0xEE000000, </v>
+        <v xml:space="preserve">0xEE000000U, </v>
       </c>
     </row>
   </sheetData>

--- a/docs/charset.xlsx
+++ b/docs/charset.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\matrix-seq-firmware\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F098FE-B7AC-4786-B463-7C4B83C6271F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{636D0070-F376-4083-98D8-02F06CA89224}"/>
   </bookViews>
@@ -399,7 +400,7 @@
   <dimension ref="A2:BR39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="BR35" sqref="BR35:BR39"/>
+      <selection activeCell="BR39" sqref="BR39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,131 +512,131 @@
     </row>
     <row r="3" spans="1:70" x14ac:dyDescent="0.25">
       <c r="AK3" s="1">
-        <f>2^AK2</f>
+        <f t="shared" ref="AK3:BP3" si="0">2^AK2</f>
         <v>2147483648</v>
       </c>
       <c r="AL3" s="1">
-        <f>2^AL2</f>
+        <f t="shared" si="0"/>
         <v>1073741824</v>
       </c>
       <c r="AM3" s="1">
-        <f>2^AM2</f>
+        <f t="shared" si="0"/>
         <v>536870912</v>
       </c>
       <c r="AN3" s="1">
-        <f>2^AN2</f>
+        <f t="shared" si="0"/>
         <v>268435456</v>
       </c>
       <c r="AO3" s="1">
-        <f>2^AO2</f>
+        <f t="shared" si="0"/>
         <v>134217728</v>
       </c>
       <c r="AP3" s="1">
-        <f>2^AP2</f>
+        <f t="shared" si="0"/>
         <v>67108864</v>
       </c>
       <c r="AQ3" s="1">
-        <f>2^AQ2</f>
+        <f t="shared" si="0"/>
         <v>33554432</v>
       </c>
       <c r="AR3" s="1">
-        <f>2^AR2</f>
+        <f t="shared" si="0"/>
         <v>16777216</v>
       </c>
       <c r="AS3" s="1">
-        <f>2^AS2</f>
+        <f t="shared" si="0"/>
         <v>8388608</v>
       </c>
       <c r="AT3" s="1">
-        <f>2^AT2</f>
+        <f t="shared" si="0"/>
         <v>4194304</v>
       </c>
       <c r="AU3" s="1">
-        <f>2^AU2</f>
+        <f t="shared" si="0"/>
         <v>2097152</v>
       </c>
       <c r="AV3" s="1">
-        <f>2^AV2</f>
+        <f t="shared" si="0"/>
         <v>1048576</v>
       </c>
       <c r="AW3" s="1">
-        <f>2^AW2</f>
+        <f t="shared" si="0"/>
         <v>524288</v>
       </c>
       <c r="AX3" s="1">
-        <f>2^AX2</f>
+        <f t="shared" si="0"/>
         <v>262144</v>
       </c>
       <c r="AY3" s="1">
-        <f>2^AY2</f>
+        <f t="shared" si="0"/>
         <v>131072</v>
       </c>
       <c r="AZ3" s="1">
-        <f>2^AZ2</f>
+        <f t="shared" si="0"/>
         <v>65536</v>
       </c>
       <c r="BA3" s="1">
-        <f>2^BA2</f>
+        <f t="shared" si="0"/>
         <v>32768</v>
       </c>
       <c r="BB3" s="1">
-        <f>2^BB2</f>
+        <f t="shared" si="0"/>
         <v>16384</v>
       </c>
       <c r="BC3" s="1">
-        <f>2^BC2</f>
+        <f t="shared" si="0"/>
         <v>8192</v>
       </c>
       <c r="BD3" s="1">
-        <f>2^BD2</f>
+        <f t="shared" si="0"/>
         <v>4096</v>
       </c>
       <c r="BE3" s="1">
-        <f>2^BE2</f>
+        <f t="shared" si="0"/>
         <v>2048</v>
       </c>
       <c r="BF3" s="1">
-        <f>2^BF2</f>
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="BG3" s="1">
-        <f>2^BG2</f>
+        <f t="shared" si="0"/>
         <v>512</v>
       </c>
       <c r="BH3" s="1">
-        <f>2^BH2</f>
+        <f t="shared" si="0"/>
         <v>256</v>
       </c>
       <c r="BI3" s="1">
-        <f>2^BI2</f>
+        <f t="shared" si="0"/>
         <v>128</v>
       </c>
       <c r="BJ3" s="1">
-        <f>2^BJ2</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="BK3" s="1">
-        <f>2^BK2</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="BL3" s="1">
-        <f>2^BL2</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="BM3" s="1">
-        <f>2^BM2</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="BN3" s="1">
-        <f>2^BN2</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="BO3" s="1">
-        <f>2^BO2</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="BP3" s="1">
-        <f>2^BP2</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -712,131 +713,131 @@
         <v>1</v>
       </c>
       <c r="AK5" s="1">
-        <f>A5*AK$3</f>
+        <f t="shared" ref="AK5:BP5" si="1">A5*AK$3</f>
         <v>2147483648</v>
       </c>
       <c r="AL5" s="1">
-        <f>B5*AL$3</f>
+        <f t="shared" si="1"/>
         <v>1073741824</v>
       </c>
       <c r="AM5" s="1">
-        <f>C5*AM$3</f>
+        <f t="shared" si="1"/>
         <v>536870912</v>
       </c>
       <c r="AN5" s="1">
-        <f>D5*AN$3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <f>E5*AO$3</f>
+        <f t="shared" si="1"/>
         <v>134217728</v>
       </c>
       <c r="AP5" s="1">
-        <f>F5*AP$3</f>
+        <f t="shared" si="1"/>
         <v>67108864</v>
       </c>
       <c r="AQ5" s="1">
-        <f>G5*AQ$3</f>
+        <f t="shared" si="1"/>
         <v>33554432</v>
       </c>
       <c r="AR5" s="1">
-        <f>H5*AR$3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AS5" s="1">
-        <f>I5*AS$3</f>
+        <f t="shared" si="1"/>
         <v>8388608</v>
       </c>
       <c r="AT5" s="1">
-        <f>J5*AT$3</f>
+        <f t="shared" si="1"/>
         <v>4194304</v>
       </c>
       <c r="AU5" s="1">
-        <f>K5*AU$3</f>
+        <f t="shared" si="1"/>
         <v>2097152</v>
       </c>
       <c r="AV5" s="1">
-        <f>L5*AV$3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AW5" s="1">
-        <f>M5*AW$3</f>
+        <f t="shared" si="1"/>
         <v>524288</v>
       </c>
       <c r="AX5" s="1">
-        <f>N5*AX$3</f>
+        <f t="shared" si="1"/>
         <v>262144</v>
       </c>
       <c r="AY5" s="1">
-        <f>O5*AY$3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AZ5" s="1">
-        <f>P5*AZ$3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BA5" s="1">
-        <f>Q5*BA$3</f>
+        <f t="shared" si="1"/>
         <v>32768</v>
       </c>
       <c r="BB5" s="1">
-        <f>R5*BB$3</f>
+        <f t="shared" si="1"/>
         <v>16384</v>
       </c>
       <c r="BC5" s="1">
-        <f>S5*BC$3</f>
+        <f t="shared" si="1"/>
         <v>8192</v>
       </c>
       <c r="BD5" s="1">
-        <f>T5*BD$3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BE5" s="1">
-        <f>U5*BE$3</f>
+        <f t="shared" si="1"/>
         <v>2048</v>
       </c>
       <c r="BF5" s="1">
-        <f>V5*BF$3</f>
+        <f t="shared" si="1"/>
         <v>1024</v>
       </c>
       <c r="BG5" s="1">
-        <f>W5*BG$3</f>
+        <f t="shared" si="1"/>
         <v>512</v>
       </c>
       <c r="BH5" s="1">
-        <f>X5*BH$3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <f>Y5*BI$3</f>
+        <f t="shared" si="1"/>
         <v>128</v>
       </c>
       <c r="BJ5" s="1">
-        <f>Z5*BJ$3</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="BK5" s="1">
-        <f>AA5*BK$3</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="BL5" s="1">
-        <f>AB5*BL$3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BM5" s="1">
-        <f>AC5*BM$3</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="BN5" s="1">
-        <f>AD5*BN$3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BO5" s="1">
-        <f>AE5*BO$3</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="BP5" s="1">
-        <f>AF5*BP$3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BR5" s="1" t="str">
@@ -882,135 +883,135 @@
         <v>1</v>
       </c>
       <c r="AK6" s="1">
-        <f t="shared" ref="AK6:AK9" si="0">A6*AK$3</f>
+        <f t="shared" ref="AK6:AK9" si="2">A6*AK$3</f>
         <v>2147483648</v>
       </c>
       <c r="AL6" s="1">
-        <f t="shared" ref="AL6:AL9" si="1">B6*AL$3</f>
+        <f t="shared" ref="AL6:AL9" si="3">B6*AL$3</f>
         <v>0</v>
       </c>
       <c r="AM6" s="1">
-        <f t="shared" ref="AM6:AM9" si="2">C6*AM$3</f>
+        <f t="shared" ref="AM6:AM9" si="4">C6*AM$3</f>
         <v>536870912</v>
       </c>
       <c r="AN6" s="1">
-        <f t="shared" ref="AN6:AN9" si="3">D6*AN$3</f>
+        <f t="shared" ref="AN6:AN9" si="5">D6*AN$3</f>
         <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <f t="shared" ref="AO6:AO9" si="4">E6*AO$3</f>
+        <f t="shared" ref="AO6:AO9" si="6">E6*AO$3</f>
         <v>134217728</v>
       </c>
       <c r="AP6" s="1">
-        <f t="shared" ref="AP6:AP9" si="5">F6*AP$3</f>
+        <f t="shared" ref="AP6:AP9" si="7">F6*AP$3</f>
         <v>0</v>
       </c>
       <c r="AQ6" s="1">
-        <f t="shared" ref="AQ6:AQ9" si="6">G6*AQ$3</f>
+        <f t="shared" ref="AQ6:AQ9" si="8">G6*AQ$3</f>
         <v>33554432</v>
       </c>
       <c r="AR6" s="1">
-        <f t="shared" ref="AR6:AR9" si="7">H6*AR$3</f>
+        <f t="shared" ref="AR6:AR9" si="9">H6*AR$3</f>
         <v>0</v>
       </c>
       <c r="AS6" s="1">
-        <f t="shared" ref="AS6:AS9" si="8">I6*AS$3</f>
+        <f t="shared" ref="AS6:AS9" si="10">I6*AS$3</f>
         <v>8388608</v>
       </c>
       <c r="AT6" s="1">
-        <f t="shared" ref="AT6:AT9" si="9">J6*AT$3</f>
+        <f t="shared" ref="AT6:AT9" si="11">J6*AT$3</f>
         <v>0</v>
       </c>
       <c r="AU6" s="1">
-        <f t="shared" ref="AU6:AU9" si="10">K6*AU$3</f>
+        <f t="shared" ref="AU6:AU9" si="12">K6*AU$3</f>
         <v>0</v>
       </c>
       <c r="AV6" s="1">
-        <f t="shared" ref="AV6:AV9" si="11">L6*AV$3</f>
+        <f t="shared" ref="AV6:AV9" si="13">L6*AV$3</f>
         <v>0</v>
       </c>
       <c r="AW6" s="1">
-        <f t="shared" ref="AW6:AW9" si="12">M6*AW$3</f>
+        <f t="shared" ref="AW6:AW9" si="14">M6*AW$3</f>
         <v>524288</v>
       </c>
       <c r="AX6" s="1">
-        <f t="shared" ref="AX6:AX9" si="13">N6*AX$3</f>
+        <f t="shared" ref="AX6:AX9" si="15">N6*AX$3</f>
         <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <f t="shared" ref="AY6:AY9" si="14">O6*AY$3</f>
+        <f t="shared" ref="AY6:AY9" si="16">O6*AY$3</f>
         <v>131072</v>
       </c>
       <c r="AZ6" s="1">
-        <f t="shared" ref="AZ6:AZ9" si="15">P6*AZ$3</f>
+        <f t="shared" ref="AZ6:AZ9" si="17">P6*AZ$3</f>
         <v>0</v>
       </c>
       <c r="BA6" s="1">
-        <f t="shared" ref="BA6:BA9" si="16">Q6*BA$3</f>
+        <f t="shared" ref="BA6:BA9" si="18">Q6*BA$3</f>
         <v>32768</v>
       </c>
       <c r="BB6" s="1">
-        <f t="shared" ref="BB6:BB9" si="17">R6*BB$3</f>
+        <f t="shared" ref="BB6:BB9" si="19">R6*BB$3</f>
         <v>0</v>
       </c>
       <c r="BC6" s="1">
-        <f t="shared" ref="BC6:BC9" si="18">S6*BC$3</f>
+        <f t="shared" ref="BC6:BC9" si="20">S6*BC$3</f>
         <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <f t="shared" ref="BD6:BD9" si="19">T6*BD$3</f>
+        <f t="shared" ref="BD6:BD9" si="21">T6*BD$3</f>
         <v>0</v>
       </c>
       <c r="BE6" s="1">
-        <f t="shared" ref="BE6:BE9" si="20">U6*BE$3</f>
+        <f t="shared" ref="BE6:BE9" si="22">U6*BE$3</f>
         <v>2048</v>
       </c>
       <c r="BF6" s="1">
-        <f t="shared" ref="BF6:BF9" si="21">V6*BF$3</f>
+        <f t="shared" ref="BF6:BF9" si="23">V6*BF$3</f>
         <v>0</v>
       </c>
       <c r="BG6" s="1">
-        <f t="shared" ref="BG6:BG9" si="22">W6*BG$3</f>
+        <f t="shared" ref="BG6:BG9" si="24">W6*BG$3</f>
         <v>0</v>
       </c>
       <c r="BH6" s="1">
-        <f t="shared" ref="BH6:BH9" si="23">X6*BH$3</f>
+        <f t="shared" ref="BH6:BH9" si="25">X6*BH$3</f>
         <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <f t="shared" ref="BI6:BI9" si="24">Y6*BI$3</f>
+        <f t="shared" ref="BI6:BI9" si="26">Y6*BI$3</f>
         <v>128</v>
       </c>
       <c r="BJ6" s="1">
-        <f t="shared" ref="BJ6:BJ9" si="25">Z6*BJ$3</f>
+        <f t="shared" ref="BJ6:BJ9" si="27">Z6*BJ$3</f>
         <v>0</v>
       </c>
       <c r="BK6" s="1">
-        <f t="shared" ref="BK6:BK9" si="26">AA6*BK$3</f>
+        <f t="shared" ref="BK6:BK9" si="28">AA6*BK$3</f>
         <v>0</v>
       </c>
       <c r="BL6" s="1">
-        <f t="shared" ref="BL6:BL9" si="27">AB6*BL$3</f>
+        <f t="shared" ref="BL6:BL9" si="29">AB6*BL$3</f>
         <v>0</v>
       </c>
       <c r="BM6" s="1">
-        <f t="shared" ref="BM6:BM9" si="28">AC6*BM$3</f>
+        <f t="shared" ref="BM6:BM9" si="30">AC6*BM$3</f>
         <v>8</v>
       </c>
       <c r="BN6" s="1">
-        <f t="shared" ref="BN6:BN9" si="29">AD6*BN$3</f>
+        <f t="shared" ref="BN6:BN9" si="31">AD6*BN$3</f>
         <v>0</v>
       </c>
       <c r="BO6" s="1">
-        <f t="shared" ref="BO6:BO9" si="30">AE6*BO$3</f>
+        <f t="shared" ref="BO6:BO9" si="32">AE6*BO$3</f>
         <v>2</v>
       </c>
       <c r="BP6" s="1">
-        <f t="shared" ref="BP6:BP9" si="31">AF6*BP$3</f>
+        <f t="shared" ref="BP6:BP9" si="33">AF6*BP$3</f>
         <v>0</v>
       </c>
       <c r="BR6" s="1" t="str">
-        <f t="shared" ref="BR6:BR9" si="32">"0x" &amp; DEC2HEX(SUM(AK6:BP6)) &amp; "U, "</f>
+        <f t="shared" ref="BR6:BR9" si="34">"0x" &amp; DEC2HEX(SUM(AK6:BP6)) &amp; "U, "</f>
         <v xml:space="preserve">0xAA8A888AU, </v>
       </c>
     </row>
@@ -1064,135 +1065,135 @@
         <v>1</v>
       </c>
       <c r="AK7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2147483648</v>
       </c>
       <c r="AL7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1073741824</v>
       </c>
       <c r="AM7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>536870912</v>
       </c>
       <c r="AN7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>134217728</v>
       </c>
       <c r="AP7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>67108864</v>
       </c>
       <c r="AQ7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AS7" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8388608</v>
       </c>
       <c r="AT7" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AU7" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AV7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AW7" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>524288</v>
       </c>
       <c r="AX7" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>131072</v>
       </c>
       <c r="AZ7" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BA7" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>32768</v>
       </c>
       <c r="BB7" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>16384</v>
       </c>
       <c r="BC7" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BE7" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2048</v>
       </c>
       <c r="BF7" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1024</v>
       </c>
       <c r="BG7" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BH7" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>128</v>
       </c>
       <c r="BJ7" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="BK7" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="BL7" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BM7" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>8</v>
       </c>
       <c r="BN7" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="BO7" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
       <c r="BP7" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BR7" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v xml:space="preserve">0xEC8ACC8EU, </v>
       </c>
     </row>
@@ -1237,135 +1238,135 @@
         <v>1</v>
       </c>
       <c r="AK8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2147483648</v>
       </c>
       <c r="AL8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>536870912</v>
       </c>
       <c r="AN8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>134217728</v>
       </c>
       <c r="AP8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AQ8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>33554432</v>
       </c>
       <c r="AR8" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AS8" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8388608</v>
       </c>
       <c r="AT8" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AU8" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AV8" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AW8" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>524288</v>
       </c>
       <c r="AX8" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>131072</v>
       </c>
       <c r="AZ8" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BA8" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>32768</v>
       </c>
       <c r="BB8" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BC8" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BE8" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2048</v>
       </c>
       <c r="BF8" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="BG8" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BH8" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>128</v>
       </c>
       <c r="BJ8" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="BK8" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>32</v>
       </c>
       <c r="BL8" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BM8" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>8</v>
       </c>
       <c r="BN8" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BO8" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
       <c r="BP8" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BR8" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v xml:space="preserve">0xAA8A88AAU, </v>
       </c>
     </row>
@@ -1428,135 +1429,135 @@
         <v>1</v>
       </c>
       <c r="AK9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2147483648</v>
       </c>
       <c r="AL9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>536870912</v>
       </c>
       <c r="AN9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>134217728</v>
       </c>
       <c r="AP9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>67108864</v>
       </c>
       <c r="AQ9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>33554432</v>
       </c>
       <c r="AR9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AS9" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8388608</v>
       </c>
       <c r="AT9" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4194304</v>
       </c>
       <c r="AU9" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2097152</v>
       </c>
       <c r="AV9" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AW9" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>524288</v>
       </c>
       <c r="AX9" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>262144</v>
       </c>
       <c r="AY9" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AZ9" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BA9" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>32768</v>
       </c>
       <c r="BB9" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>16384</v>
       </c>
       <c r="BC9" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>8192</v>
       </c>
       <c r="BD9" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BE9" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2048</v>
       </c>
       <c r="BF9" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="BG9" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BH9" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>128</v>
       </c>
       <c r="BJ9" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>64</v>
       </c>
       <c r="BK9" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>32</v>
       </c>
       <c r="BL9" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BM9" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>8</v>
       </c>
       <c r="BN9" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BO9" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
       <c r="BP9" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BR9" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v xml:space="preserve">0xAEECE8EAU, </v>
       </c>
     </row>
@@ -1621,131 +1622,131 @@
         <v>1</v>
       </c>
       <c r="AK11" s="1">
-        <f>A11*AK$3</f>
+        <f t="shared" ref="AK11:BP11" si="35">A11*AK$3</f>
         <v>2147483648</v>
       </c>
       <c r="AL11" s="1">
-        <f>B11*AL$3</f>
+        <f t="shared" si="35"/>
         <v>1073741824</v>
       </c>
       <c r="AM11" s="1">
-        <f>C11*AM$3</f>
+        <f t="shared" si="35"/>
         <v>536870912</v>
       </c>
       <c r="AN11" s="1">
-        <f>D11*AN$3</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <f>E11*AO$3</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AP11" s="1">
-        <f>F11*AP$3</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AQ11" s="1">
-        <f>G11*AQ$3</f>
+        <f t="shared" si="35"/>
         <v>33554432</v>
       </c>
       <c r="AR11" s="1">
-        <f>H11*AR$3</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AS11" s="1">
-        <f>I11*AS$3</f>
+        <f t="shared" si="35"/>
         <v>8388608</v>
       </c>
       <c r="AT11" s="1">
-        <f>J11*AT$3</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AU11" s="1">
-        <f>K11*AU$3</f>
+        <f t="shared" si="35"/>
         <v>2097152</v>
       </c>
       <c r="AV11" s="1">
-        <f>L11*AV$3</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AW11" s="1">
-        <f>M11*AW$3</f>
+        <f t="shared" si="35"/>
         <v>524288</v>
       </c>
       <c r="AX11" s="1">
-        <f>N11*AX$3</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <f>O11*AY$3</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AZ11" s="1">
-        <f>P11*AZ$3</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="BA11" s="1">
-        <f>Q11*BA$3</f>
+        <f t="shared" si="35"/>
         <v>32768</v>
       </c>
       <c r="BB11" s="1">
-        <f>R11*BB$3</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="BC11" s="1">
-        <f>S11*BC$3</f>
+        <f t="shared" si="35"/>
         <v>8192</v>
       </c>
       <c r="BD11" s="1">
-        <f>T11*BD$3</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="BE11" s="1">
-        <f>U11*BE$3</f>
+        <f t="shared" si="35"/>
         <v>2048</v>
       </c>
       <c r="BF11" s="1">
-        <f>V11*BF$3</f>
+        <f t="shared" si="35"/>
         <v>1024</v>
       </c>
       <c r="BG11" s="1">
-        <f>W11*BG$3</f>
+        <f t="shared" si="35"/>
         <v>512</v>
       </c>
       <c r="BH11" s="1">
-        <f>X11*BH$3</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <f>Y11*BI$3</f>
+        <f t="shared" si="35"/>
         <v>128</v>
       </c>
       <c r="BJ11" s="1">
-        <f>Z11*BJ$3</f>
+        <f t="shared" si="35"/>
         <v>64</v>
       </c>
       <c r="BK11" s="1">
-        <f>AA11*BK$3</f>
+        <f t="shared" si="35"/>
         <v>32</v>
       </c>
       <c r="BL11" s="1">
-        <f>AB11*BL$3</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="BM11" s="1">
-        <f>AC11*BM$3</f>
+        <f t="shared" si="35"/>
         <v>8</v>
       </c>
       <c r="BN11" s="1">
-        <f>AD11*BN$3</f>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
       <c r="BO11" s="1">
-        <f>AE11*BO$3</f>
+        <f t="shared" si="35"/>
         <v>2</v>
       </c>
       <c r="BP11" s="1">
-        <f>AF11*BP$3</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="BR11" s="1" t="str">
@@ -1797,135 +1798,135 @@
         <v>1</v>
       </c>
       <c r="AK12" s="1">
-        <f t="shared" ref="AK12:AK15" si="33">A12*AK$3</f>
+        <f t="shared" ref="AK12:AK15" si="36">A12*AK$3</f>
         <v>0</v>
       </c>
       <c r="AL12" s="1">
-        <f t="shared" ref="AL12:AL15" si="34">B12*AL$3</f>
+        <f t="shared" ref="AL12:AL15" si="37">B12*AL$3</f>
         <v>1073741824</v>
       </c>
       <c r="AM12" s="1">
-        <f t="shared" ref="AM12:AM15" si="35">C12*AM$3</f>
+        <f t="shared" ref="AM12:AM15" si="38">C12*AM$3</f>
         <v>0</v>
       </c>
       <c r="AN12" s="1">
-        <f t="shared" ref="AN12:AN15" si="36">D12*AN$3</f>
+        <f t="shared" ref="AN12:AN15" si="39">D12*AN$3</f>
         <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <f t="shared" ref="AO12:AO15" si="37">E12*AO$3</f>
+        <f t="shared" ref="AO12:AO15" si="40">E12*AO$3</f>
         <v>0</v>
       </c>
       <c r="AP12" s="1">
-        <f t="shared" ref="AP12:AP15" si="38">F12*AP$3</f>
+        <f t="shared" ref="AP12:AP15" si="41">F12*AP$3</f>
         <v>0</v>
       </c>
       <c r="AQ12" s="1">
-        <f t="shared" ref="AQ12:AQ15" si="39">G12*AQ$3</f>
+        <f t="shared" ref="AQ12:AQ15" si="42">G12*AQ$3</f>
         <v>33554432</v>
       </c>
       <c r="AR12" s="1">
-        <f t="shared" ref="AR12:AR15" si="40">H12*AR$3</f>
+        <f t="shared" ref="AR12:AR15" si="43">H12*AR$3</f>
         <v>0</v>
       </c>
       <c r="AS12" s="1">
-        <f t="shared" ref="AS12:AS15" si="41">I12*AS$3</f>
+        <f t="shared" ref="AS12:AS15" si="44">I12*AS$3</f>
         <v>8388608</v>
       </c>
       <c r="AT12" s="1">
-        <f t="shared" ref="AT12:AT15" si="42">J12*AT$3</f>
+        <f t="shared" ref="AT12:AT15" si="45">J12*AT$3</f>
         <v>0</v>
       </c>
       <c r="AU12" s="1">
-        <f t="shared" ref="AU12:AU15" si="43">K12*AU$3</f>
+        <f t="shared" ref="AU12:AU15" si="46">K12*AU$3</f>
         <v>2097152</v>
       </c>
       <c r="AV12" s="1">
-        <f t="shared" ref="AV12:AV15" si="44">L12*AV$3</f>
+        <f t="shared" ref="AV12:AV15" si="47">L12*AV$3</f>
         <v>0</v>
       </c>
       <c r="AW12" s="1">
-        <f t="shared" ref="AW12:AW15" si="45">M12*AW$3</f>
+        <f t="shared" ref="AW12:AW15" si="48">M12*AW$3</f>
         <v>524288</v>
       </c>
       <c r="AX12" s="1">
-        <f t="shared" ref="AX12:AX15" si="46">N12*AX$3</f>
+        <f t="shared" ref="AX12:AX15" si="49">N12*AX$3</f>
         <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <f t="shared" ref="AY12:AY15" si="47">O12*AY$3</f>
+        <f t="shared" ref="AY12:AY15" si="50">O12*AY$3</f>
         <v>0</v>
       </c>
       <c r="AZ12" s="1">
-        <f t="shared" ref="AZ12:AZ15" si="48">P12*AZ$3</f>
+        <f t="shared" ref="AZ12:AZ15" si="51">P12*AZ$3</f>
         <v>0</v>
       </c>
       <c r="BA12" s="1">
-        <f t="shared" ref="BA12:BA15" si="49">Q12*BA$3</f>
+        <f t="shared" ref="BA12:BA15" si="52">Q12*BA$3</f>
         <v>32768</v>
       </c>
       <c r="BB12" s="1">
-        <f t="shared" ref="BB12:BB15" si="50">R12*BB$3</f>
+        <f t="shared" ref="BB12:BB15" si="53">R12*BB$3</f>
         <v>16384</v>
       </c>
       <c r="BC12" s="1">
-        <f t="shared" ref="BC12:BC15" si="51">S12*BC$3</f>
+        <f t="shared" ref="BC12:BC15" si="54">S12*BC$3</f>
         <v>8192</v>
       </c>
       <c r="BD12" s="1">
-        <f t="shared" ref="BD12:BD15" si="52">T12*BD$3</f>
+        <f t="shared" ref="BD12:BD15" si="55">T12*BD$3</f>
         <v>0</v>
       </c>
       <c r="BE12" s="1">
-        <f t="shared" ref="BE12:BE15" si="53">U12*BE$3</f>
+        <f t="shared" ref="BE12:BE15" si="56">U12*BE$3</f>
         <v>2048</v>
       </c>
       <c r="BF12" s="1">
-        <f t="shared" ref="BF12:BF15" si="54">V12*BF$3</f>
+        <f t="shared" ref="BF12:BF15" si="57">V12*BF$3</f>
         <v>0</v>
       </c>
       <c r="BG12" s="1">
-        <f t="shared" ref="BG12:BG15" si="55">W12*BG$3</f>
+        <f t="shared" ref="BG12:BG15" si="58">W12*BG$3</f>
         <v>512</v>
       </c>
       <c r="BH12" s="1">
-        <f t="shared" ref="BH12:BH15" si="56">X12*BH$3</f>
+        <f t="shared" ref="BH12:BH15" si="59">X12*BH$3</f>
         <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <f t="shared" ref="BI12:BI15" si="57">Y12*BI$3</f>
+        <f t="shared" ref="BI12:BI15" si="60">Y12*BI$3</f>
         <v>128</v>
       </c>
       <c r="BJ12" s="1">
-        <f t="shared" ref="BJ12:BJ15" si="58">Z12*BJ$3</f>
+        <f t="shared" ref="BJ12:BJ15" si="61">Z12*BJ$3</f>
         <v>0</v>
       </c>
       <c r="BK12" s="1">
-        <f t="shared" ref="BK12:BK15" si="59">AA12*BK$3</f>
+        <f t="shared" ref="BK12:BK15" si="62">AA12*BK$3</f>
         <v>32</v>
       </c>
       <c r="BL12" s="1">
-        <f t="shared" ref="BL12:BL15" si="60">AB12*BL$3</f>
+        <f t="shared" ref="BL12:BL15" si="63">AB12*BL$3</f>
         <v>0</v>
       </c>
       <c r="BM12" s="1">
-        <f t="shared" ref="BM12:BM15" si="61">AC12*BM$3</f>
+        <f t="shared" ref="BM12:BM15" si="64">AC12*BM$3</f>
         <v>8</v>
       </c>
       <c r="BN12" s="1">
-        <f t="shared" ref="BN12:BN15" si="62">AD12*BN$3</f>
+        <f t="shared" ref="BN12:BN15" si="65">AD12*BN$3</f>
         <v>0</v>
       </c>
       <c r="BO12" s="1">
-        <f t="shared" ref="BO12:BO15" si="63">AE12*BO$3</f>
+        <f t="shared" ref="BO12:BO15" si="66">AE12*BO$3</f>
         <v>2</v>
       </c>
       <c r="BP12" s="1">
-        <f t="shared" ref="BP12:BP15" si="64">AF12*BP$3</f>
+        <f t="shared" ref="BP12:BP15" si="67">AF12*BP$3</f>
         <v>0</v>
       </c>
       <c r="BR12" s="1" t="str">
-        <f t="shared" ref="BR12:BR15" si="65">"0x" &amp; DEC2HEX(SUM(AK12:BP12)) &amp; "U, "</f>
+        <f t="shared" ref="BR12:BR15" si="68">"0x" &amp; DEC2HEX(SUM(AK12:BP12)) &amp; "U, "</f>
         <v xml:space="preserve">0x42A8EAAAU, </v>
       </c>
     </row>
@@ -1973,135 +1974,135 @@
         <v>1</v>
       </c>
       <c r="AK13" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AL13" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>1073741824</v>
       </c>
       <c r="AM13" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AN13" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AP13" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AQ13" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>33554432</v>
       </c>
       <c r="AR13" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AS13" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>8388608</v>
       </c>
       <c r="AT13" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>4194304</v>
       </c>
       <c r="AU13" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AV13" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AW13" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>524288</v>
       </c>
       <c r="AX13" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AZ13" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="BA13" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>32768</v>
       </c>
       <c r="BB13" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="BC13" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>8192</v>
       </c>
       <c r="BD13" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="BE13" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>2048</v>
       </c>
       <c r="BF13" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="BG13" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>512</v>
       </c>
       <c r="BH13" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>128</v>
       </c>
       <c r="BJ13" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="BK13" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>32</v>
       </c>
       <c r="BL13" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="BM13" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>8</v>
       </c>
       <c r="BN13" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>4</v>
       </c>
       <c r="BO13" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>2</v>
       </c>
       <c r="BP13" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="BR13" s="1" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v xml:space="preserve">0x42C8AAAEU, </v>
       </c>
     </row>
@@ -2143,135 +2144,135 @@
         <v>1</v>
       </c>
       <c r="AK14" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AL14" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>1073741824</v>
       </c>
       <c r="AM14" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AN14" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AP14" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AQ14" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>33554432</v>
       </c>
       <c r="AR14" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AS14" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>8388608</v>
       </c>
       <c r="AT14" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AU14" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>2097152</v>
       </c>
       <c r="AV14" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AW14" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>524288</v>
       </c>
       <c r="AX14" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AZ14" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="BA14" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>32768</v>
       </c>
       <c r="BB14" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="BC14" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>8192</v>
       </c>
       <c r="BD14" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="BE14" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>2048</v>
       </c>
       <c r="BF14" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="BG14" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>512</v>
       </c>
       <c r="BH14" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>128</v>
       </c>
       <c r="BJ14" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="BK14" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>32</v>
       </c>
       <c r="BL14" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="BM14" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>8</v>
       </c>
       <c r="BN14" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="BO14" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="BP14" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="BR14" s="1" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v xml:space="preserve">0x42A8AAA8U, </v>
       </c>
     </row>
@@ -2331,135 +2332,135 @@
         <v>1</v>
       </c>
       <c r="AK15" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>2147483648</v>
       </c>
       <c r="AL15" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>1073741824</v>
       </c>
       <c r="AM15" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>536870912</v>
       </c>
       <c r="AN15" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>134217728</v>
       </c>
       <c r="AP15" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>67108864</v>
       </c>
       <c r="AQ15" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AS15" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>8388608</v>
       </c>
       <c r="AT15" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AU15" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>2097152</v>
       </c>
       <c r="AV15" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AW15" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>524288</v>
       </c>
       <c r="AX15" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>262144</v>
       </c>
       <c r="AY15" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>131072</v>
       </c>
       <c r="AZ15" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="BA15" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>32768</v>
       </c>
       <c r="BB15" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="BC15" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>8192</v>
       </c>
       <c r="BD15" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="BE15" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>2048</v>
       </c>
       <c r="BF15" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="BG15" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>512</v>
       </c>
       <c r="BH15" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>128</v>
       </c>
       <c r="BJ15" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>64</v>
       </c>
       <c r="BK15" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>32</v>
       </c>
       <c r="BL15" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="BM15" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>8</v>
       </c>
       <c r="BN15" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="BO15" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="BP15" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="BR15" s="1" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v xml:space="preserve">0xECAEAAE8U, </v>
       </c>
     </row>
@@ -2530,131 +2531,131 @@
         <v>1</v>
       </c>
       <c r="AK17" s="1">
-        <f>A17*AK$3</f>
+        <f t="shared" ref="AK17:BP17" si="69">A17*AK$3</f>
         <v>2147483648</v>
       </c>
       <c r="AL17" s="1">
-        <f>B17*AL$3</f>
+        <f t="shared" si="69"/>
         <v>1073741824</v>
       </c>
       <c r="AM17" s="1">
-        <f>C17*AM$3</f>
+        <f t="shared" si="69"/>
         <v>536870912</v>
       </c>
       <c r="AN17" s="1">
-        <f>D17*AN$3</f>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <f>E17*AO$3</f>
+        <f t="shared" si="69"/>
         <v>134217728</v>
       </c>
       <c r="AP17" s="1">
-        <f>F17*AP$3</f>
+        <f t="shared" si="69"/>
         <v>67108864</v>
       </c>
       <c r="AQ17" s="1">
-        <f>G17*AQ$3</f>
+        <f t="shared" si="69"/>
         <v>33554432</v>
       </c>
       <c r="AR17" s="1">
-        <f>H17*AR$3</f>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="AS17" s="1">
-        <f>I17*AS$3</f>
+        <f t="shared" si="69"/>
         <v>8388608</v>
       </c>
       <c r="AT17" s="1">
-        <f>J17*AT$3</f>
+        <f t="shared" si="69"/>
         <v>4194304</v>
       </c>
       <c r="AU17" s="1">
-        <f>K17*AU$3</f>
+        <f t="shared" si="69"/>
         <v>2097152</v>
       </c>
       <c r="AV17" s="1">
-        <f>L17*AV$3</f>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="AW17" s="1">
-        <f>M17*AW$3</f>
+        <f t="shared" si="69"/>
         <v>524288</v>
       </c>
       <c r="AX17" s="1">
-        <f>N17*AX$3</f>
+        <f t="shared" si="69"/>
         <v>262144</v>
       </c>
       <c r="AY17" s="1">
-        <f>O17*AY$3</f>
+        <f t="shared" si="69"/>
         <v>131072</v>
       </c>
       <c r="AZ17" s="1">
-        <f>P17*AZ$3</f>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="BA17" s="1">
-        <f>Q17*BA$3</f>
+        <f t="shared" si="69"/>
         <v>32768</v>
       </c>
       <c r="BB17" s="1">
-        <f>R17*BB$3</f>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="BC17" s="1">
-        <f>S17*BC$3</f>
+        <f t="shared" si="69"/>
         <v>8192</v>
       </c>
       <c r="BD17" s="1">
-        <f>T17*BD$3</f>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="BE17" s="1">
-        <f>U17*BE$3</f>
+        <f t="shared" si="69"/>
         <v>2048</v>
       </c>
       <c r="BF17" s="1">
-        <f>V17*BF$3</f>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="BG17" s="1">
-        <f>W17*BG$3</f>
+        <f t="shared" si="69"/>
         <v>512</v>
       </c>
       <c r="BH17" s="1">
-        <f>X17*BH$3</f>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <f>Y17*BI$3</f>
+        <f t="shared" si="69"/>
         <v>128</v>
       </c>
       <c r="BJ17" s="1">
-        <f>Z17*BJ$3</f>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="BK17" s="1">
-        <f>AA17*BK$3</f>
+        <f t="shared" si="69"/>
         <v>32</v>
       </c>
       <c r="BL17" s="1">
-        <f>AB17*BL$3</f>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="BM17" s="1">
-        <f>AC17*BM$3</f>
+        <f t="shared" si="69"/>
         <v>8</v>
       </c>
       <c r="BN17" s="1">
-        <f>AD17*BN$3</f>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="BO17" s="1">
-        <f>AE17*BO$3</f>
+        <f t="shared" si="69"/>
         <v>2</v>
       </c>
       <c r="BP17" s="1">
-        <f>AF17*BP$3</f>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="BR17" s="1" t="str">
@@ -2706,135 +2707,135 @@
         <v>1</v>
       </c>
       <c r="AK18" s="1">
-        <f t="shared" ref="AK18:AK21" si="66">A18*AK$3</f>
+        <f t="shared" ref="AK18:AK21" si="70">A18*AK$3</f>
         <v>2147483648</v>
       </c>
       <c r="AL18" s="1">
-        <f t="shared" ref="AL18:AL21" si="67">B18*AL$3</f>
+        <f t="shared" ref="AL18:AL21" si="71">B18*AL$3</f>
         <v>0</v>
       </c>
       <c r="AM18" s="1">
-        <f t="shared" ref="AM18:AM21" si="68">C18*AM$3</f>
+        <f t="shared" ref="AM18:AM21" si="72">C18*AM$3</f>
         <v>536870912</v>
       </c>
       <c r="AN18" s="1">
-        <f t="shared" ref="AN18:AN21" si="69">D18*AN$3</f>
+        <f t="shared" ref="AN18:AN21" si="73">D18*AN$3</f>
         <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <f t="shared" ref="AO18:AO21" si="70">E18*AO$3</f>
+        <f t="shared" ref="AO18:AO21" si="74">E18*AO$3</f>
         <v>134217728</v>
       </c>
       <c r="AP18" s="1">
-        <f t="shared" ref="AP18:AP21" si="71">F18*AP$3</f>
+        <f t="shared" ref="AP18:AP21" si="75">F18*AP$3</f>
         <v>0</v>
       </c>
       <c r="AQ18" s="1">
-        <f t="shared" ref="AQ18:AQ21" si="72">G18*AQ$3</f>
+        <f t="shared" ref="AQ18:AQ21" si="76">G18*AQ$3</f>
         <v>33554432</v>
       </c>
       <c r="AR18" s="1">
-        <f t="shared" ref="AR18:AR21" si="73">H18*AR$3</f>
+        <f t="shared" ref="AR18:AR21" si="77">H18*AR$3</f>
         <v>0</v>
       </c>
       <c r="AS18" s="1">
-        <f t="shared" ref="AS18:AS21" si="74">I18*AS$3</f>
+        <f t="shared" ref="AS18:AS21" si="78">I18*AS$3</f>
         <v>8388608</v>
       </c>
       <c r="AT18" s="1">
-        <f t="shared" ref="AT18:AT21" si="75">J18*AT$3</f>
+        <f t="shared" ref="AT18:AT21" si="79">J18*AT$3</f>
         <v>0</v>
       </c>
       <c r="AU18" s="1">
-        <f t="shared" ref="AU18:AU21" si="76">K18*AU$3</f>
+        <f t="shared" ref="AU18:AU21" si="80">K18*AU$3</f>
         <v>0</v>
       </c>
       <c r="AV18" s="1">
-        <f t="shared" ref="AV18:AV21" si="77">L18*AV$3</f>
+        <f t="shared" ref="AV18:AV21" si="81">L18*AV$3</f>
         <v>0</v>
       </c>
       <c r="AW18" s="1">
-        <f t="shared" ref="AW18:AW21" si="78">M18*AW$3</f>
+        <f t="shared" ref="AW18:AW21" si="82">M18*AW$3</f>
         <v>0</v>
       </c>
       <c r="AX18" s="1">
-        <f t="shared" ref="AX18:AX21" si="79">N18*AX$3</f>
+        <f t="shared" ref="AX18:AX21" si="83">N18*AX$3</f>
         <v>262144</v>
       </c>
       <c r="AY18" s="1">
-        <f t="shared" ref="AY18:AY21" si="80">O18*AY$3</f>
+        <f t="shared" ref="AY18:AY21" si="84">O18*AY$3</f>
         <v>0</v>
       </c>
       <c r="AZ18" s="1">
-        <f t="shared" ref="AZ18:AZ21" si="81">P18*AZ$3</f>
+        <f t="shared" ref="AZ18:AZ21" si="85">P18*AZ$3</f>
         <v>0</v>
       </c>
       <c r="BA18" s="1">
-        <f t="shared" ref="BA18:BA21" si="82">Q18*BA$3</f>
+        <f t="shared" ref="BA18:BA21" si="86">Q18*BA$3</f>
         <v>32768</v>
       </c>
       <c r="BB18" s="1">
-        <f t="shared" ref="BB18:BB21" si="83">R18*BB$3</f>
+        <f t="shared" ref="BB18:BB21" si="87">R18*BB$3</f>
         <v>0</v>
       </c>
       <c r="BC18" s="1">
-        <f t="shared" ref="BC18:BC21" si="84">S18*BC$3</f>
+        <f t="shared" ref="BC18:BC21" si="88">S18*BC$3</f>
         <v>8192</v>
       </c>
       <c r="BD18" s="1">
-        <f t="shared" ref="BD18:BD21" si="85">T18*BD$3</f>
+        <f t="shared" ref="BD18:BD21" si="89">T18*BD$3</f>
         <v>0</v>
       </c>
       <c r="BE18" s="1">
-        <f t="shared" ref="BE18:BE21" si="86">U18*BE$3</f>
+        <f t="shared" ref="BE18:BE21" si="90">U18*BE$3</f>
         <v>2048</v>
       </c>
       <c r="BF18" s="1">
-        <f t="shared" ref="BF18:BF21" si="87">V18*BF$3</f>
+        <f t="shared" ref="BF18:BF21" si="91">V18*BF$3</f>
         <v>0</v>
       </c>
       <c r="BG18" s="1">
-        <f t="shared" ref="BG18:BG21" si="88">W18*BG$3</f>
+        <f t="shared" ref="BG18:BG21" si="92">W18*BG$3</f>
         <v>512</v>
       </c>
       <c r="BH18" s="1">
-        <f t="shared" ref="BH18:BH21" si="89">X18*BH$3</f>
+        <f t="shared" ref="BH18:BH21" si="93">X18*BH$3</f>
         <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <f t="shared" ref="BI18:BI21" si="90">Y18*BI$3</f>
+        <f t="shared" ref="BI18:BI21" si="94">Y18*BI$3</f>
         <v>128</v>
       </c>
       <c r="BJ18" s="1">
-        <f t="shared" ref="BJ18:BJ21" si="91">Z18*BJ$3</f>
+        <f t="shared" ref="BJ18:BJ21" si="95">Z18*BJ$3</f>
         <v>0</v>
       </c>
       <c r="BK18" s="1">
-        <f t="shared" ref="BK18:BK21" si="92">AA18*BK$3</f>
+        <f t="shared" ref="BK18:BK21" si="96">AA18*BK$3</f>
         <v>32</v>
       </c>
       <c r="BL18" s="1">
-        <f t="shared" ref="BL18:BL21" si="93">AB18*BL$3</f>
+        <f t="shared" ref="BL18:BL21" si="97">AB18*BL$3</f>
         <v>0</v>
       </c>
       <c r="BM18" s="1">
-        <f t="shared" ref="BM18:BM21" si="94">AC18*BM$3</f>
+        <f t="shared" ref="BM18:BM21" si="98">AC18*BM$3</f>
         <v>8</v>
       </c>
       <c r="BN18" s="1">
-        <f t="shared" ref="BN18:BN21" si="95">AD18*BN$3</f>
+        <f t="shared" ref="BN18:BN21" si="99">AD18*BN$3</f>
         <v>0</v>
       </c>
       <c r="BO18" s="1">
-        <f t="shared" ref="BO18:BO21" si="96">AE18*BO$3</f>
+        <f t="shared" ref="BO18:BO21" si="100">AE18*BO$3</f>
         <v>2</v>
       </c>
       <c r="BP18" s="1">
-        <f t="shared" ref="BP18:BP21" si="97">AF18*BP$3</f>
+        <f t="shared" ref="BP18:BP21" si="101">AF18*BP$3</f>
         <v>0</v>
       </c>
       <c r="BR18" s="1" t="str">
-        <f t="shared" ref="BR18:BR21" si="98">"0x" &amp; DEC2HEX(SUM(AK18:BP18)) &amp; "U, "</f>
+        <f t="shared" ref="BR18:BR21" si="102">"0x" &amp; DEC2HEX(SUM(AK18:BP18)) &amp; "U, "</f>
         <v xml:space="preserve">0xAA84AAAAU, </v>
       </c>
     </row>
@@ -2885,135 +2886,135 @@
         <v>1</v>
       </c>
       <c r="AK19" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>2147483648</v>
       </c>
       <c r="AL19" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AM19" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>536870912</v>
       </c>
       <c r="AN19" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>134217728</v>
       </c>
       <c r="AP19" s="1">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>67108864</v>
       </c>
       <c r="AQ19" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="AS19" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>8388608</v>
       </c>
       <c r="AT19" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>4194304</v>
       </c>
       <c r="AU19" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>2097152</v>
       </c>
       <c r="AV19" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="AW19" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="AX19" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>262144</v>
       </c>
       <c r="AY19" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="AZ19" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="BA19" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>32768</v>
       </c>
       <c r="BB19" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="BC19" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>8192</v>
       </c>
       <c r="BD19" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="BE19" s="1">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>2048</v>
       </c>
       <c r="BF19" s="1">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="BG19" s="1">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>512</v>
       </c>
       <c r="BH19" s="1">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="94"/>
         <v>128</v>
       </c>
       <c r="BJ19" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="BK19" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>32</v>
       </c>
       <c r="BL19" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="BM19" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>4</v>
       </c>
       <c r="BO19" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="BP19" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="BR19" s="1" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v xml:space="preserve">0xACE4AAA4U, </v>
       </c>
     </row>
@@ -3067,135 +3068,135 @@
         <v>1</v>
       </c>
       <c r="AK20" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>2147483648</v>
       </c>
       <c r="AL20" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>1073741824</v>
       </c>
       <c r="AM20" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>536870912</v>
       </c>
       <c r="AN20" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>134217728</v>
       </c>
       <c r="AP20" s="1">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="AQ20" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>33554432</v>
       </c>
       <c r="AR20" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="AS20" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="AU20" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>2097152</v>
       </c>
       <c r="AV20" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="AW20" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="AX20" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>262144</v>
       </c>
       <c r="AY20" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="AZ20" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="BA20" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>32768</v>
       </c>
       <c r="BB20" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="BC20" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>8192</v>
       </c>
       <c r="BD20" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="BE20" s="1">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>2048</v>
       </c>
       <c r="BF20" s="1">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="BG20" s="1">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>512</v>
       </c>
       <c r="BH20" s="1">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="94"/>
         <v>128</v>
       </c>
       <c r="BJ20" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="95"/>
         <v>64</v>
       </c>
       <c r="BK20" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>32</v>
       </c>
       <c r="BL20" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="BM20" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>8</v>
       </c>
       <c r="BN20" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="BO20" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>2</v>
       </c>
       <c r="BP20" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="BR20" s="1" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v xml:space="preserve">0xEA24AAEAU, </v>
       </c>
     </row>
@@ -3255,135 +3256,135 @@
         <v>1</v>
       </c>
       <c r="AK21" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>2147483648</v>
       </c>
       <c r="AL21" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>1073741824</v>
       </c>
       <c r="AM21" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>536870912</v>
       </c>
       <c r="AN21" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>134217728</v>
       </c>
       <c r="AP21" s="1">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="AQ21" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>33554432</v>
       </c>
       <c r="AR21" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="AS21" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>8388608</v>
       </c>
       <c r="AT21" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>4194304</v>
       </c>
       <c r="AU21" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>2097152</v>
       </c>
       <c r="AV21" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="AW21" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="AX21" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>262144</v>
       </c>
       <c r="AY21" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="AZ21" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="BA21" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>32768</v>
       </c>
       <c r="BB21" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>16384</v>
       </c>
       <c r="BC21" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>8192</v>
       </c>
       <c r="BD21" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="BE21" s="1">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>2048</v>
       </c>
       <c r="BF21" s="1">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v>1024</v>
       </c>
       <c r="BG21" s="1">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="BH21" s="1">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="94"/>
         <v>128</v>
       </c>
       <c r="BJ21" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="BK21" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>32</v>
       </c>
       <c r="BL21" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="BM21" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>8</v>
       </c>
       <c r="BN21" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="BO21" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>2</v>
       </c>
       <c r="BP21" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="BR21" s="1" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v xml:space="preserve">0xEAE4ECAAU, </v>
       </c>
     </row>
@@ -3412,131 +3413,131 @@
         <v>1</v>
       </c>
       <c r="AK23" s="1">
-        <f>A23*AK$3</f>
+        <f t="shared" ref="AK23:BP23" si="103">A23*AK$3</f>
         <v>2147483648</v>
       </c>
       <c r="AL23" s="1">
-        <f>B23*AL$3</f>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="AM23" s="1">
-        <f>C23*AM$3</f>
+        <f t="shared" si="103"/>
         <v>536870912</v>
       </c>
       <c r="AN23" s="1">
-        <f>D23*AN$3</f>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <f>E23*AO$3</f>
+        <f t="shared" si="103"/>
         <v>134217728</v>
       </c>
       <c r="AP23" s="1">
-        <f>F23*AP$3</f>
+        <f t="shared" si="103"/>
         <v>67108864</v>
       </c>
       <c r="AQ23" s="1">
-        <f>G23*AQ$3</f>
+        <f t="shared" si="103"/>
         <v>33554432</v>
       </c>
       <c r="AR23" s="1">
-        <f>H23*AR$3</f>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="AS23" s="1">
-        <f>I23*AS$3</f>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <f>J23*AT$3</f>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="AU23" s="1">
-        <f>K23*AU$3</f>
+        <f t="shared" si="103"/>
         <v>2097152</v>
       </c>
       <c r="AV23" s="1">
-        <f>L23*AV$3</f>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="AW23" s="1">
-        <f>M23*AW$3</f>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="AX23" s="1">
-        <f>N23*AX$3</f>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <f>O23*AY$3</f>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="AZ23" s="1">
-        <f>P23*AZ$3</f>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="BA23" s="1">
-        <f>Q23*BA$3</f>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="BB23" s="1">
-        <f>R23*BB$3</f>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="BC23" s="1">
-        <f>S23*BC$3</f>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <f>T23*BD$3</f>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="BE23" s="1">
-        <f>U23*BE$3</f>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="BF23" s="1">
-        <f>V23*BF$3</f>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="BG23" s="1">
-        <f>W23*BG$3</f>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="BH23" s="1">
-        <f>X23*BH$3</f>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <f>Y23*BI$3</f>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="BJ23" s="1">
-        <f>Z23*BJ$3</f>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="BK23" s="1">
-        <f>AA23*BK$3</f>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="BL23" s="1">
-        <f>AB23*BL$3</f>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="BM23" s="1">
-        <f>AC23*BM$3</f>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <f>AD23*BN$3</f>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="BO23" s="1">
-        <f>AE23*BO$3</f>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="BP23" s="1">
-        <f>AF23*BP$3</f>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="BR23" s="1" t="str">
@@ -3564,135 +3565,135 @@
         <v>1</v>
       </c>
       <c r="AK24" s="1">
-        <f t="shared" ref="AK24:AK27" si="99">A24*AK$3</f>
+        <f t="shared" ref="AK24:AK27" si="104">A24*AK$3</f>
         <v>2147483648</v>
       </c>
       <c r="AL24" s="1">
-        <f t="shared" ref="AL24:AL27" si="100">B24*AL$3</f>
+        <f t="shared" ref="AL24:AL27" si="105">B24*AL$3</f>
         <v>0</v>
       </c>
       <c r="AM24" s="1">
-        <f t="shared" ref="AM24:AM27" si="101">C24*AM$3</f>
+        <f t="shared" ref="AM24:AM27" si="106">C24*AM$3</f>
         <v>536870912</v>
       </c>
       <c r="AN24" s="1">
-        <f t="shared" ref="AN24:AN27" si="102">D24*AN$3</f>
+        <f t="shared" ref="AN24:AN27" si="107">D24*AN$3</f>
         <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <f t="shared" ref="AO24:AO27" si="103">E24*AO$3</f>
+        <f t="shared" ref="AO24:AO27" si="108">E24*AO$3</f>
         <v>0</v>
       </c>
       <c r="AP24" s="1">
-        <f t="shared" ref="AP24:AP27" si="104">F24*AP$3</f>
+        <f t="shared" ref="AP24:AP27" si="109">F24*AP$3</f>
         <v>0</v>
       </c>
       <c r="AQ24" s="1">
-        <f t="shared" ref="AQ24:AQ27" si="105">G24*AQ$3</f>
+        <f t="shared" ref="AQ24:AQ27" si="110">G24*AQ$3</f>
         <v>33554432</v>
       </c>
       <c r="AR24" s="1">
-        <f t="shared" ref="AR24:AR27" si="106">H24*AR$3</f>
+        <f t="shared" ref="AR24:AR27" si="111">H24*AR$3</f>
         <v>0</v>
       </c>
       <c r="AS24" s="1">
-        <f>I24*AS$3</f>
+        <f t="shared" ref="AS24:AU26" si="112">I24*AS$3</f>
         <v>8388608</v>
       </c>
       <c r="AT24" s="1">
-        <f>J24*AT$3</f>
+        <f t="shared" si="112"/>
         <v>4194304</v>
       </c>
       <c r="AU24" s="1">
-        <f>K24*AU$3</f>
+        <f t="shared" si="112"/>
         <v>2097152</v>
       </c>
       <c r="AV24" s="1">
-        <f t="shared" ref="AV24:AV27" si="107">L24*AV$3</f>
+        <f t="shared" ref="AV24:AV27" si="113">L24*AV$3</f>
         <v>0</v>
       </c>
       <c r="AW24" s="1">
-        <f t="shared" ref="AW24:AW27" si="108">M24*AW$3</f>
+        <f t="shared" ref="AW24:AW27" si="114">M24*AW$3</f>
         <v>0</v>
       </c>
       <c r="AX24" s="1">
-        <f t="shared" ref="AX24:AX27" si="109">N24*AX$3</f>
+        <f t="shared" ref="AX24:AX27" si="115">N24*AX$3</f>
         <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <f t="shared" ref="AY24:AY27" si="110">O24*AY$3</f>
+        <f t="shared" ref="AY24:AY27" si="116">O24*AY$3</f>
         <v>0</v>
       </c>
       <c r="AZ24" s="1">
-        <f t="shared" ref="AZ24:AZ27" si="111">P24*AZ$3</f>
+        <f t="shared" ref="AZ24:AZ27" si="117">P24*AZ$3</f>
         <v>0</v>
       </c>
       <c r="BA24" s="1">
-        <f t="shared" ref="BA24:BA27" si="112">Q24*BA$3</f>
+        <f t="shared" ref="BA24:BA27" si="118">Q24*BA$3</f>
         <v>0</v>
       </c>
       <c r="BB24" s="1">
-        <f t="shared" ref="BB24:BB27" si="113">R24*BB$3</f>
+        <f t="shared" ref="BB24:BB27" si="119">R24*BB$3</f>
         <v>0</v>
       </c>
       <c r="BC24" s="1">
-        <f t="shared" ref="BC24:BC27" si="114">S24*BC$3</f>
+        <f t="shared" ref="BC24:BC27" si="120">S24*BC$3</f>
         <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <f t="shared" ref="BD24:BD27" si="115">T24*BD$3</f>
+        <f t="shared" ref="BD24:BD27" si="121">T24*BD$3</f>
         <v>0</v>
       </c>
       <c r="BE24" s="1">
-        <f t="shared" ref="BE24:BE27" si="116">U24*BE$3</f>
+        <f t="shared" ref="BE24:BE27" si="122">U24*BE$3</f>
         <v>0</v>
       </c>
       <c r="BF24" s="1">
-        <f t="shared" ref="BF24:BF27" si="117">V24*BF$3</f>
+        <f t="shared" ref="BF24:BF27" si="123">V24*BF$3</f>
         <v>0</v>
       </c>
       <c r="BG24" s="1">
-        <f t="shared" ref="BG24:BG27" si="118">W24*BG$3</f>
+        <f t="shared" ref="BG24:BG27" si="124">W24*BG$3</f>
         <v>0</v>
       </c>
       <c r="BH24" s="1">
-        <f t="shared" ref="BH24:BH27" si="119">X24*BH$3</f>
+        <f t="shared" ref="BH24:BH27" si="125">X24*BH$3</f>
         <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <f t="shared" ref="BI24:BI27" si="120">Y24*BI$3</f>
+        <f t="shared" ref="BI24:BI27" si="126">Y24*BI$3</f>
         <v>0</v>
       </c>
       <c r="BJ24" s="1">
-        <f t="shared" ref="BJ24:BJ27" si="121">Z24*BJ$3</f>
+        <f t="shared" ref="BJ24:BJ27" si="127">Z24*BJ$3</f>
         <v>0</v>
       </c>
       <c r="BK24" s="1">
-        <f t="shared" ref="BK24:BK27" si="122">AA24*BK$3</f>
+        <f t="shared" ref="BK24:BK27" si="128">AA24*BK$3</f>
         <v>0</v>
       </c>
       <c r="BL24" s="1">
-        <f t="shared" ref="BL24:BL27" si="123">AB24*BL$3</f>
+        <f t="shared" ref="BL24:BL27" si="129">AB24*BL$3</f>
         <v>0</v>
       </c>
       <c r="BM24" s="1">
-        <f t="shared" ref="BM24:BM27" si="124">AC24*BM$3</f>
+        <f t="shared" ref="BM24:BM27" si="130">AC24*BM$3</f>
         <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <f t="shared" ref="BN24:BN27" si="125">AD24*BN$3</f>
+        <f t="shared" ref="BN24:BN27" si="131">AD24*BN$3</f>
         <v>0</v>
       </c>
       <c r="BO24" s="1">
-        <f t="shared" ref="BO24:BO27" si="126">AE24*BO$3</f>
+        <f t="shared" ref="BO24:BO27" si="132">AE24*BO$3</f>
         <v>0</v>
       </c>
       <c r="BP24" s="1">
-        <f t="shared" ref="BP24:BP27" si="127">AF24*BP$3</f>
+        <f t="shared" ref="BP24:BP27" si="133">AF24*BP$3</f>
         <v>0</v>
       </c>
       <c r="BR24" s="1" t="str">
-        <f t="shared" ref="BR24:BR27" si="128">"0x" &amp; DEC2HEX(SUM(AK24:BP24)) &amp; "U, "</f>
+        <f t="shared" ref="BR24:BR27" si="134">"0x" &amp; DEC2HEX(SUM(AK24:BP24)) &amp; "U, "</f>
         <v xml:space="preserve">0xA2E00000U, </v>
       </c>
     </row>
@@ -3713,135 +3714,135 @@
         <v>1</v>
       </c>
       <c r="AK25" s="1">
-        <f t="shared" si="99"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="AL25" s="1">
-        <f t="shared" si="100"/>
+        <f t="shared" si="105"/>
         <v>1073741824</v>
       </c>
       <c r="AM25" s="1">
-        <f t="shared" si="101"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="AN25" s="1">
-        <f t="shared" si="102"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <f t="shared" si="103"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="AP25" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="109"/>
         <v>67108864</v>
       </c>
       <c r="AQ25" s="1">
-        <f t="shared" si="105"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="AR25" s="1">
-        <f t="shared" si="106"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="AS25" s="1">
-        <f>I25*AS$3</f>
+        <f t="shared" si="112"/>
         <v>8388608</v>
       </c>
       <c r="AT25" s="1">
-        <f>J25*AT$3</f>
+        <f t="shared" si="112"/>
         <v>4194304</v>
       </c>
       <c r="AU25" s="1">
-        <f>K25*AU$3</f>
+        <f t="shared" si="112"/>
         <v>2097152</v>
       </c>
       <c r="AV25" s="1">
-        <f t="shared" si="107"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AW25" s="1">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AX25" s="1">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="AZ25" s="1">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="BA25" s="1">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="BB25" s="1">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="BC25" s="1">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <f t="shared" si="115"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="BE25" s="1">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="BF25" s="1">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="BG25" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="BH25" s="1">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="BJ25" s="1">
-        <f t="shared" si="121"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="BK25" s="1">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="BL25" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="BM25" s="1">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="BO25" s="1">
-        <f t="shared" si="126"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="BP25" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="BR25" s="1" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v xml:space="preserve">0x44E00000U, </v>
       </c>
     </row>
@@ -3856,135 +3857,135 @@
         <v>1</v>
       </c>
       <c r="AK26" s="1">
-        <f t="shared" si="99"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="AL26" s="1">
-        <f t="shared" si="100"/>
+        <f t="shared" si="105"/>
         <v>1073741824</v>
       </c>
       <c r="AM26" s="1">
-        <f t="shared" si="101"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="AN26" s="1">
-        <f t="shared" si="102"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <f t="shared" si="103"/>
+        <f t="shared" si="108"/>
         <v>134217728</v>
       </c>
       <c r="AP26" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="AQ26" s="1">
-        <f t="shared" si="105"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="AR26" s="1">
-        <f t="shared" si="106"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="AS26" s="1">
-        <f>I26*AS$3</f>
+        <f t="shared" si="112"/>
         <v>8388608</v>
       </c>
       <c r="AT26" s="1">
-        <f>J26*AT$3</f>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="AU26" s="1">
-        <f>K26*AU$3</f>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="AV26" s="1">
-        <f t="shared" si="107"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AW26" s="1">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AX26" s="1">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="AZ26" s="1">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="BA26" s="1">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="BB26" s="1">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="BC26" s="1">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <f t="shared" si="115"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="BE26" s="1">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="BF26" s="1">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="BG26" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="BH26" s="1">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="BJ26" s="1">
-        <f t="shared" si="121"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="BK26" s="1">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="BL26" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="BM26" s="1">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="BO26" s="1">
-        <f t="shared" si="126"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="BP26" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="BR26" s="1" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v xml:space="preserve">0x48800000U, </v>
       </c>
     </row>
@@ -4002,135 +4003,135 @@
         <v>1</v>
       </c>
       <c r="AK27" s="1">
-        <f t="shared" si="99"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="AL27" s="1">
-        <f t="shared" si="100"/>
+        <f t="shared" si="105"/>
         <v>1073741824</v>
       </c>
       <c r="AM27" s="1">
-        <f t="shared" si="101"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="AN27" s="1">
-        <f t="shared" si="102"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="AO27" s="1">
-        <f t="shared" si="103"/>
+        <f t="shared" si="108"/>
         <v>134217728</v>
       </c>
       <c r="AP27" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="109"/>
         <v>67108864</v>
       </c>
       <c r="AQ27" s="1">
-        <f t="shared" si="105"/>
+        <f t="shared" si="110"/>
         <v>33554432</v>
       </c>
       <c r="AR27" s="1">
-        <f t="shared" si="106"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="AS27" s="1">
-        <f t="shared" ref="AS27" si="129">I27*AS$3</f>
+        <f t="shared" ref="AS27" si="135">I27*AS$3</f>
         <v>0</v>
       </c>
       <c r="AT27" s="1">
-        <f t="shared" ref="AT27" si="130">J27*AT$3</f>
+        <f t="shared" ref="AT27" si="136">J27*AT$3</f>
         <v>0</v>
       </c>
       <c r="AU27" s="1">
-        <f t="shared" ref="AU27" si="131">K27*AU$3</f>
+        <f t="shared" ref="AU27" si="137">K27*AU$3</f>
         <v>0</v>
       </c>
       <c r="AV27" s="1">
-        <f t="shared" si="107"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AW27" s="1">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AX27" s="1">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AY27" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="AZ27" s="1">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="BA27" s="1">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="BB27" s="1">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="BC27" s="1">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="BD27" s="1">
-        <f t="shared" si="115"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="BE27" s="1">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="BF27" s="1">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="BG27" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="BH27" s="1">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="BI27" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="BJ27" s="1">
-        <f t="shared" si="121"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="BK27" s="1">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="BL27" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="BM27" s="1">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="BN27" s="1">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="BO27" s="1">
-        <f t="shared" si="126"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="BP27" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="BR27" s="1" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v xml:space="preserve">0x4E000000U, </v>
       </c>
     </row>
@@ -4207,131 +4208,131 @@
         <v>1</v>
       </c>
       <c r="AK29" s="1">
-        <f>A29*AK$3</f>
+        <f t="shared" ref="AK29:BP29" si="138">A29*AK$3</f>
         <v>2147483648</v>
       </c>
       <c r="AL29" s="1">
-        <f>B29*AL$3</f>
+        <f t="shared" si="138"/>
         <v>1073741824</v>
       </c>
       <c r="AM29" s="1">
-        <f>C29*AM$3</f>
+        <f t="shared" si="138"/>
         <v>536870912</v>
       </c>
       <c r="AN29" s="1">
-        <f>D29*AN$3</f>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="AO29" s="1">
-        <f>E29*AO$3</f>
+        <f t="shared" si="138"/>
         <v>134217728</v>
       </c>
       <c r="AP29" s="1">
-        <f>F29*AP$3</f>
+        <f t="shared" si="138"/>
         <v>67108864</v>
       </c>
       <c r="AQ29" s="1">
-        <f>G29*AQ$3</f>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="AR29" s="1">
-        <f>H29*AR$3</f>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="AS29" s="1">
-        <f>I29*AS$3</f>
+        <f t="shared" si="138"/>
         <v>8388608</v>
       </c>
       <c r="AT29" s="1">
-        <f>J29*AT$3</f>
+        <f t="shared" si="138"/>
         <v>4194304</v>
       </c>
       <c r="AU29" s="1">
-        <f>K29*AU$3</f>
+        <f t="shared" si="138"/>
         <v>2097152</v>
       </c>
       <c r="AV29" s="1">
-        <f>L29*AV$3</f>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="AW29" s="1">
-        <f>M29*AW$3</f>
+        <f t="shared" si="138"/>
         <v>524288</v>
       </c>
       <c r="AX29" s="1">
-        <f>N29*AX$3</f>
+        <f t="shared" si="138"/>
         <v>262144</v>
       </c>
       <c r="AY29" s="1">
-        <f>O29*AY$3</f>
+        <f t="shared" si="138"/>
         <v>131072</v>
       </c>
       <c r="AZ29" s="1">
-        <f>P29*AZ$3</f>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="BA29" s="1">
-        <f>Q29*BA$3</f>
+        <f t="shared" si="138"/>
         <v>32768</v>
       </c>
       <c r="BB29" s="1">
-        <f>R29*BB$3</f>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="BC29" s="1">
-        <f>S29*BC$3</f>
+        <f t="shared" si="138"/>
         <v>8192</v>
       </c>
       <c r="BD29" s="1">
-        <f>T29*BD$3</f>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="BE29" s="1">
-        <f>U29*BE$3</f>
+        <f t="shared" si="138"/>
         <v>2048</v>
       </c>
       <c r="BF29" s="1">
-        <f>V29*BF$3</f>
+        <f t="shared" si="138"/>
         <v>1024</v>
       </c>
       <c r="BG29" s="1">
-        <f>W29*BG$3</f>
+        <f t="shared" si="138"/>
         <v>512</v>
       </c>
       <c r="BH29" s="1">
-        <f>X29*BH$3</f>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="BI29" s="1">
-        <f>Y29*BI$3</f>
+        <f t="shared" si="138"/>
         <v>128</v>
       </c>
       <c r="BJ29" s="1">
-        <f>Z29*BJ$3</f>
+        <f t="shared" si="138"/>
         <v>64</v>
       </c>
       <c r="BK29" s="1">
-        <f>AA29*BK$3</f>
+        <f t="shared" si="138"/>
         <v>32</v>
       </c>
       <c r="BL29" s="1">
-        <f>AB29*BL$3</f>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="BM29" s="1">
-        <f>AC29*BM$3</f>
+        <f t="shared" si="138"/>
         <v>8</v>
       </c>
       <c r="BN29" s="1">
-        <f>AD29*BN$3</f>
+        <f t="shared" si="138"/>
         <v>4</v>
       </c>
       <c r="BO29" s="1">
-        <f>AE29*BO$3</f>
+        <f t="shared" si="138"/>
         <v>2</v>
       </c>
       <c r="BP29" s="1">
-        <f>AF29*BP$3</f>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="BR29" s="1" t="str">
@@ -4371,135 +4372,135 @@
         <v>1</v>
       </c>
       <c r="AK30" s="1">
-        <f t="shared" ref="AK30:AK33" si="132">A30*AK$3</f>
+        <f t="shared" ref="AK30:AK33" si="139">A30*AK$3</f>
         <v>2147483648</v>
       </c>
       <c r="AL30" s="1">
-        <f t="shared" ref="AL30:AL33" si="133">B30*AL$3</f>
+        <f t="shared" ref="AL30:AL33" si="140">B30*AL$3</f>
         <v>0</v>
       </c>
       <c r="AM30" s="1">
-        <f t="shared" ref="AM30:AM33" si="134">C30*AM$3</f>
+        <f t="shared" ref="AM30:AM33" si="141">C30*AM$3</f>
         <v>536870912</v>
       </c>
       <c r="AN30" s="1">
-        <f t="shared" ref="AN30:AN33" si="135">D30*AN$3</f>
+        <f t="shared" ref="AN30:AN33" si="142">D30*AN$3</f>
         <v>0</v>
       </c>
       <c r="AO30" s="1">
-        <f t="shared" ref="AO30:AO33" si="136">E30*AO$3</f>
+        <f t="shared" ref="AO30:AO33" si="143">E30*AO$3</f>
         <v>0</v>
       </c>
       <c r="AP30" s="1">
-        <f t="shared" ref="AP30:AP33" si="137">F30*AP$3</f>
+        <f t="shared" ref="AP30:AP33" si="144">F30*AP$3</f>
         <v>67108864</v>
       </c>
       <c r="AQ30" s="1">
-        <f t="shared" ref="AQ30:AQ33" si="138">G30*AQ$3</f>
+        <f t="shared" ref="AQ30:AQ33" si="145">G30*AQ$3</f>
         <v>0</v>
       </c>
       <c r="AR30" s="1">
-        <f t="shared" ref="AR30:AR33" si="139">H30*AR$3</f>
+        <f t="shared" ref="AR30:AR33" si="146">H30*AR$3</f>
         <v>0</v>
       </c>
       <c r="AS30" s="1">
-        <f t="shared" ref="AS30:AS33" si="140">I30*AS$3</f>
+        <f t="shared" ref="AS30:AS33" si="147">I30*AS$3</f>
         <v>0</v>
       </c>
       <c r="AT30" s="1">
-        <f t="shared" ref="AT30:AT33" si="141">J30*AT$3</f>
+        <f t="shared" ref="AT30:AT33" si="148">J30*AT$3</f>
         <v>0</v>
       </c>
       <c r="AU30" s="1">
-        <f t="shared" ref="AU30:AU33" si="142">K30*AU$3</f>
+        <f t="shared" ref="AU30:AU33" si="149">K30*AU$3</f>
         <v>2097152</v>
       </c>
       <c r="AV30" s="1">
-        <f t="shared" ref="AV30:AV33" si="143">L30*AV$3</f>
+        <f t="shared" ref="AV30:AV33" si="150">L30*AV$3</f>
         <v>0</v>
       </c>
       <c r="AW30" s="1">
-        <f t="shared" ref="AW30:AW33" si="144">M30*AW$3</f>
+        <f t="shared" ref="AW30:AW33" si="151">M30*AW$3</f>
         <v>0</v>
       </c>
       <c r="AX30" s="1">
-        <f t="shared" ref="AX30:AX33" si="145">N30*AX$3</f>
+        <f t="shared" ref="AX30:AX33" si="152">N30*AX$3</f>
         <v>0</v>
       </c>
       <c r="AY30" s="1">
-        <f t="shared" ref="AY30:AY33" si="146">O30*AY$3</f>
+        <f t="shared" ref="AY30:AY33" si="153">O30*AY$3</f>
         <v>131072</v>
       </c>
       <c r="AZ30" s="1">
-        <f t="shared" ref="AZ30:AZ33" si="147">P30*AZ$3</f>
+        <f t="shared" ref="AZ30:AZ33" si="154">P30*AZ$3</f>
         <v>0</v>
       </c>
       <c r="BA30" s="1">
-        <f t="shared" ref="BA30:BA33" si="148">Q30*BA$3</f>
+        <f t="shared" ref="BA30:BA33" si="155">Q30*BA$3</f>
         <v>32768</v>
       </c>
       <c r="BB30" s="1">
-        <f t="shared" ref="BB30:BB33" si="149">R30*BB$3</f>
+        <f t="shared" ref="BB30:BB33" si="156">R30*BB$3</f>
         <v>0</v>
       </c>
       <c r="BC30" s="1">
-        <f t="shared" ref="BC30:BC33" si="150">S30*BC$3</f>
+        <f t="shared" ref="BC30:BC33" si="157">S30*BC$3</f>
         <v>8192</v>
       </c>
       <c r="BD30" s="1">
-        <f t="shared" ref="BD30:BD33" si="151">T30*BD$3</f>
+        <f t="shared" ref="BD30:BD33" si="158">T30*BD$3</f>
         <v>0</v>
       </c>
       <c r="BE30" s="1">
-        <f t="shared" ref="BE30:BE33" si="152">U30*BE$3</f>
+        <f t="shared" ref="BE30:BE33" si="159">U30*BE$3</f>
         <v>2048</v>
       </c>
       <c r="BF30" s="1">
-        <f t="shared" ref="BF30:BF33" si="153">V30*BF$3</f>
+        <f t="shared" ref="BF30:BF33" si="160">V30*BF$3</f>
         <v>0</v>
       </c>
       <c r="BG30" s="1">
-        <f t="shared" ref="BG30:BG33" si="154">W30*BG$3</f>
+        <f t="shared" ref="BG30:BG33" si="161">W30*BG$3</f>
         <v>0</v>
       </c>
       <c r="BH30" s="1">
-        <f t="shared" ref="BH30:BH33" si="155">X30*BH$3</f>
+        <f t="shared" ref="BH30:BH33" si="162">X30*BH$3</f>
         <v>0</v>
       </c>
       <c r="BI30" s="1">
-        <f t="shared" ref="BI30:BI33" si="156">Y30*BI$3</f>
+        <f t="shared" ref="BI30:BI33" si="163">Y30*BI$3</f>
         <v>128</v>
       </c>
       <c r="BJ30" s="1">
-        <f t="shared" ref="BJ30:BJ33" si="157">Z30*BJ$3</f>
+        <f t="shared" ref="BJ30:BJ33" si="164">Z30*BJ$3</f>
         <v>0</v>
       </c>
       <c r="BK30" s="1">
-        <f t="shared" ref="BK30:BK33" si="158">AA30*BK$3</f>
+        <f t="shared" ref="BK30:BK33" si="165">AA30*BK$3</f>
         <v>0</v>
       </c>
       <c r="BL30" s="1">
-        <f t="shared" ref="BL30:BL33" si="159">AB30*BL$3</f>
+        <f t="shared" ref="BL30:BL33" si="166">AB30*BL$3</f>
         <v>0</v>
       </c>
       <c r="BM30" s="1">
-        <f t="shared" ref="BM30:BM33" si="160">AC30*BM$3</f>
+        <f t="shared" ref="BM30:BM33" si="167">AC30*BM$3</f>
         <v>0</v>
       </c>
       <c r="BN30" s="1">
-        <f t="shared" ref="BN30:BN33" si="161">AD30*BN$3</f>
+        <f t="shared" ref="BN30:BN33" si="168">AD30*BN$3</f>
         <v>0</v>
       </c>
       <c r="BO30" s="1">
-        <f t="shared" ref="BO30:BO33" si="162">AE30*BO$3</f>
+        <f t="shared" ref="BO30:BO33" si="169">AE30*BO$3</f>
         <v>2</v>
       </c>
       <c r="BP30" s="1">
-        <f t="shared" ref="BP30:BP33" si="163">AF30*BP$3</f>
+        <f t="shared" ref="BP30:BP33" si="170">AF30*BP$3</f>
         <v>0</v>
       </c>
       <c r="BR30" s="1" t="str">
-        <f t="shared" ref="BR30:BR33" si="164">"0x" &amp; DEC2HEX(SUM(AK30:BP30)) &amp; "U, "</f>
+        <f t="shared" ref="BR30:BR33" si="171">"0x" &amp; DEC2HEX(SUM(AK30:BP30)) &amp; "U, "</f>
         <v xml:space="preserve">0xA422A882U, </v>
       </c>
     </row>
@@ -4559,135 +4560,135 @@
         <v>1</v>
       </c>
       <c r="AK31" s="1">
-        <f t="shared" si="132"/>
+        <f t="shared" si="139"/>
         <v>2147483648</v>
       </c>
       <c r="AL31" s="1">
-        <f t="shared" si="133"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
       <c r="AM31" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="141"/>
         <v>536870912</v>
       </c>
       <c r="AN31" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="AO31" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="AP31" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="144"/>
         <v>67108864</v>
       </c>
       <c r="AQ31" s="1">
-        <f t="shared" si="138"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="AR31" s="1">
-        <f t="shared" si="139"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="AS31" s="1">
-        <f t="shared" si="140"/>
+        <f t="shared" si="147"/>
         <v>8388608</v>
       </c>
       <c r="AT31" s="1">
-        <f t="shared" si="141"/>
+        <f t="shared" si="148"/>
         <v>4194304</v>
       </c>
       <c r="AU31" s="1">
-        <f t="shared" si="142"/>
+        <f t="shared" si="149"/>
         <v>2097152</v>
       </c>
       <c r="AV31" s="1">
-        <f t="shared" si="143"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="AW31" s="1">
-        <f t="shared" si="144"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
       <c r="AX31" s="1">
-        <f t="shared" si="145"/>
+        <f t="shared" si="152"/>
         <v>262144</v>
       </c>
       <c r="AY31" s="1">
-        <f t="shared" si="146"/>
+        <f t="shared" si="153"/>
         <v>131072</v>
       </c>
       <c r="AZ31" s="1">
-        <f t="shared" si="147"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="BA31" s="1">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>32768</v>
       </c>
       <c r="BB31" s="1">
-        <f t="shared" si="149"/>
+        <f t="shared" si="156"/>
         <v>16384</v>
       </c>
       <c r="BC31" s="1">
-        <f t="shared" si="150"/>
+        <f t="shared" si="157"/>
         <v>8192</v>
       </c>
       <c r="BD31" s="1">
-        <f t="shared" si="151"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="BE31" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="159"/>
         <v>2048</v>
       </c>
       <c r="BF31" s="1">
-        <f t="shared" si="153"/>
+        <f t="shared" si="160"/>
         <v>1024</v>
       </c>
       <c r="BG31" s="1">
-        <f t="shared" si="154"/>
+        <f t="shared" si="161"/>
         <v>512</v>
       </c>
       <c r="BH31" s="1">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="BI31" s="1">
-        <f t="shared" si="156"/>
+        <f t="shared" si="163"/>
         <v>128</v>
       </c>
       <c r="BJ31" s="1">
-        <f t="shared" si="157"/>
+        <f t="shared" si="164"/>
         <v>64</v>
       </c>
       <c r="BK31" s="1">
-        <f t="shared" si="158"/>
+        <f t="shared" si="165"/>
         <v>32</v>
       </c>
       <c r="BL31" s="1">
-        <f t="shared" si="159"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="BM31" s="1">
-        <f t="shared" si="160"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="BN31" s="1">
-        <f t="shared" si="161"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="BO31" s="1">
-        <f t="shared" si="162"/>
+        <f t="shared" si="169"/>
         <v>2</v>
       </c>
       <c r="BP31" s="1">
-        <f t="shared" si="163"/>
+        <f t="shared" si="170"/>
         <v>0</v>
       </c>
       <c r="BR31" s="1" t="str">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v xml:space="preserve">0xA4E6EEE2U, </v>
       </c>
     </row>
@@ -4723,135 +4724,135 @@
         <v>1</v>
       </c>
       <c r="AK32" s="1">
-        <f t="shared" si="132"/>
+        <f t="shared" si="139"/>
         <v>2147483648</v>
       </c>
       <c r="AL32" s="1">
-        <f t="shared" si="133"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
       <c r="AM32" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="141"/>
         <v>536870912</v>
       </c>
       <c r="AN32" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="AO32" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="AP32" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="144"/>
         <v>67108864</v>
       </c>
       <c r="AQ32" s="1">
-        <f t="shared" si="138"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="AR32" s="1">
-        <f t="shared" si="139"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="AS32" s="1">
-        <f t="shared" si="140"/>
+        <f t="shared" si="147"/>
         <v>8388608</v>
       </c>
       <c r="AT32" s="1">
-        <f t="shared" si="141"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="AU32" s="1">
-        <f t="shared" si="142"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="AV32" s="1">
-        <f t="shared" si="143"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="AW32" s="1">
-        <f t="shared" si="144"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
       <c r="AX32" s="1">
-        <f t="shared" si="145"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="AY32" s="1">
-        <f t="shared" si="146"/>
+        <f t="shared" si="153"/>
         <v>131072</v>
       </c>
       <c r="AZ32" s="1">
-        <f t="shared" si="147"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="BA32" s="1">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
       <c r="BB32" s="1">
-        <f t="shared" si="149"/>
+        <f t="shared" si="156"/>
         <v>0</v>
       </c>
       <c r="BC32" s="1">
-        <f t="shared" si="150"/>
+        <f t="shared" si="157"/>
         <v>8192</v>
       </c>
       <c r="BD32" s="1">
-        <f t="shared" si="151"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="BE32" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="BF32" s="1">
-        <f t="shared" si="153"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="BG32" s="1">
-        <f t="shared" si="154"/>
+        <f t="shared" si="161"/>
         <v>512</v>
       </c>
       <c r="BH32" s="1">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="BI32" s="1">
-        <f t="shared" si="156"/>
+        <f t="shared" si="163"/>
         <v>128</v>
       </c>
       <c r="BJ32" s="1">
-        <f t="shared" si="157"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="BK32" s="1">
-        <f t="shared" si="158"/>
+        <f t="shared" si="165"/>
         <v>32</v>
       </c>
       <c r="BL32" s="1">
-        <f t="shared" si="159"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="BM32" s="1">
-        <f t="shared" si="160"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="BN32" s="1">
-        <f t="shared" si="161"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="BO32" s="1">
-        <f t="shared" si="162"/>
+        <f t="shared" si="169"/>
         <v>2</v>
       </c>
       <c r="BP32" s="1">
-        <f t="shared" si="163"/>
+        <f t="shared" si="170"/>
         <v>0</v>
       </c>
       <c r="BR32" s="1" t="str">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v xml:space="preserve">0xA48222A2U, </v>
       </c>
     </row>
@@ -4917,135 +4918,135 @@
         <v>1</v>
       </c>
       <c r="AK33" s="1">
-        <f t="shared" si="132"/>
+        <f t="shared" si="139"/>
         <v>2147483648</v>
       </c>
       <c r="AL33" s="1">
-        <f t="shared" si="133"/>
+        <f t="shared" si="140"/>
         <v>1073741824</v>
       </c>
       <c r="AM33" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="141"/>
         <v>536870912</v>
       </c>
       <c r="AN33" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="AO33" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="143"/>
         <v>134217728</v>
       </c>
       <c r="AP33" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="144"/>
         <v>67108864</v>
       </c>
       <c r="AQ33" s="1">
-        <f t="shared" si="138"/>
+        <f t="shared" si="145"/>
         <v>33554432</v>
       </c>
       <c r="AR33" s="1">
-        <f t="shared" si="139"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="AS33" s="1">
-        <f t="shared" si="140"/>
+        <f t="shared" si="147"/>
         <v>8388608</v>
       </c>
       <c r="AT33" s="1">
-        <f t="shared" si="141"/>
+        <f t="shared" si="148"/>
         <v>4194304</v>
       </c>
       <c r="AU33" s="1">
-        <f t="shared" si="142"/>
+        <f t="shared" si="149"/>
         <v>2097152</v>
       </c>
       <c r="AV33" s="1">
-        <f t="shared" si="143"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="AW33" s="1">
-        <f t="shared" si="144"/>
+        <f t="shared" si="151"/>
         <v>524288</v>
       </c>
       <c r="AX33" s="1">
-        <f t="shared" si="145"/>
+        <f t="shared" si="152"/>
         <v>262144</v>
       </c>
       <c r="AY33" s="1">
-        <f t="shared" si="146"/>
+        <f t="shared" si="153"/>
         <v>131072</v>
       </c>
       <c r="AZ33" s="1">
-        <f t="shared" si="147"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="BA33" s="1">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
       <c r="BB33" s="1">
-        <f t="shared" si="149"/>
+        <f t="shared" si="156"/>
         <v>0</v>
       </c>
       <c r="BC33" s="1">
-        <f t="shared" si="150"/>
+        <f t="shared" si="157"/>
         <v>8192</v>
       </c>
       <c r="BD33" s="1">
-        <f t="shared" si="151"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="BE33" s="1">
-        <f t="shared" si="152"/>
+        <f t="shared" si="159"/>
         <v>2048</v>
       </c>
       <c r="BF33" s="1">
-        <f t="shared" si="153"/>
+        <f t="shared" si="160"/>
         <v>1024</v>
       </c>
       <c r="BG33" s="1">
-        <f t="shared" si="154"/>
+        <f t="shared" si="161"/>
         <v>512</v>
       </c>
       <c r="BH33" s="1">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="BI33" s="1">
-        <f t="shared" si="156"/>
+        <f t="shared" si="163"/>
         <v>128</v>
       </c>
       <c r="BJ33" s="1">
-        <f t="shared" si="157"/>
+        <f t="shared" si="164"/>
         <v>64</v>
       </c>
       <c r="BK33" s="1">
-        <f t="shared" si="158"/>
+        <f t="shared" si="165"/>
         <v>32</v>
       </c>
       <c r="BL33" s="1">
-        <f t="shared" si="159"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="BM33" s="1">
-        <f t="shared" si="160"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="BN33" s="1">
-        <f t="shared" si="161"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="BO33" s="1">
-        <f t="shared" si="162"/>
+        <f t="shared" si="169"/>
         <v>2</v>
       </c>
       <c r="BP33" s="1">
-        <f t="shared" si="163"/>
+        <f t="shared" si="170"/>
         <v>0</v>
       </c>
       <c r="BR33" s="1" t="str">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v xml:space="preserve">0xEEEE2EE2U, </v>
       </c>
     </row>
@@ -5073,137 +5074,149 @@
       <c r="G35" s="1">
         <v>1</v>
       </c>
+      <c r="AC35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF35" s="1">
+        <v>1</v>
+      </c>
       <c r="AK35" s="1">
-        <f>A35*AK$3</f>
+        <f t="shared" ref="AK35:BP35" si="172">A35*AK$3</f>
         <v>2147483648</v>
       </c>
       <c r="AL35" s="1">
-        <f>B35*AL$3</f>
+        <f t="shared" si="172"/>
         <v>1073741824</v>
       </c>
       <c r="AM35" s="1">
-        <f>C35*AM$3</f>
+        <f t="shared" si="172"/>
         <v>536870912</v>
       </c>
       <c r="AN35" s="1">
-        <f>D35*AN$3</f>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="AO35" s="1">
-        <f>E35*AO$3</f>
+        <f t="shared" si="172"/>
         <v>134217728</v>
       </c>
       <c r="AP35" s="1">
-        <f>F35*AP$3</f>
+        <f t="shared" si="172"/>
         <v>67108864</v>
       </c>
       <c r="AQ35" s="1">
-        <f>G35*AQ$3</f>
+        <f t="shared" si="172"/>
         <v>33554432</v>
       </c>
       <c r="AR35" s="1">
-        <f>H35*AR$3</f>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="AS35" s="1">
-        <f>I35*AS$3</f>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="AT35" s="1">
-        <f>J35*AT$3</f>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="AU35" s="1">
-        <f>K35*AU$3</f>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="AV35" s="1">
-        <f>L35*AV$3</f>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="AW35" s="1">
-        <f>M35*AW$3</f>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="AX35" s="1">
-        <f>N35*AX$3</f>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="AY35" s="1">
-        <f>O35*AY$3</f>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="AZ35" s="1">
-        <f>P35*AZ$3</f>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="BA35" s="1">
-        <f>Q35*BA$3</f>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="BB35" s="1">
-        <f>R35*BB$3</f>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="BC35" s="1">
-        <f>S35*BC$3</f>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="BD35" s="1">
-        <f>T35*BD$3</f>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="BE35" s="1">
-        <f>U35*BE$3</f>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="BF35" s="1">
-        <f>V35*BF$3</f>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="BG35" s="1">
-        <f>W35*BG$3</f>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="BH35" s="1">
-        <f>X35*BH$3</f>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="BI35" s="1">
-        <f>Y35*BI$3</f>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="BJ35" s="1">
-        <f>Z35*BJ$3</f>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="BK35" s="1">
-        <f>AA35*BK$3</f>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="BL35" s="1">
-        <f>AB35*BL$3</f>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="BM35" s="1">
-        <f>AC35*BM$3</f>
-        <v>0</v>
+        <f t="shared" si="172"/>
+        <v>8</v>
       </c>
       <c r="BN35" s="1">
-        <f>AD35*BN$3</f>
-        <v>0</v>
+        <f t="shared" si="172"/>
+        <v>4</v>
       </c>
       <c r="BO35" s="1">
-        <f>AE35*BO$3</f>
-        <v>0</v>
+        <f t="shared" si="172"/>
+        <v>2</v>
       </c>
       <c r="BP35" s="1">
-        <f>AF35*BP$3</f>
-        <v>0</v>
+        <f t="shared" si="172"/>
+        <v>1</v>
       </c>
       <c r="BR35" s="1" t="str">
         <f>"0x" &amp; DEC2HEX(SUM(AK35:BP35)) &amp; "U, "</f>
-        <v xml:space="preserve">0xEE000000U, </v>
+        <v xml:space="preserve">0xEE00000FU, </v>
       </c>
     </row>
     <row r="36" spans="1:70" x14ac:dyDescent="0.25">
@@ -5219,137 +5232,149 @@
       <c r="G36" s="1">
         <v>1</v>
       </c>
+      <c r="AC36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF36" s="1">
+        <v>1</v>
+      </c>
       <c r="AK36" s="1">
-        <f t="shared" ref="AK36:AK39" si="165">A36*AK$3</f>
+        <f t="shared" ref="AK36:AK39" si="173">A36*AK$3</f>
         <v>2147483648</v>
       </c>
       <c r="AL36" s="1">
-        <f t="shared" ref="AL36:AL39" si="166">B36*AL$3</f>
+        <f t="shared" ref="AL36:AL39" si="174">B36*AL$3</f>
         <v>0</v>
       </c>
       <c r="AM36" s="1">
-        <f t="shared" ref="AM36:AM39" si="167">C36*AM$3</f>
+        <f t="shared" ref="AM36:AM39" si="175">C36*AM$3</f>
         <v>536870912</v>
       </c>
       <c r="AN36" s="1">
-        <f t="shared" ref="AN36:AN39" si="168">D36*AN$3</f>
+        <f t="shared" ref="AN36:AN39" si="176">D36*AN$3</f>
         <v>0</v>
       </c>
       <c r="AO36" s="1">
-        <f t="shared" ref="AO36:AO39" si="169">E36*AO$3</f>
+        <f t="shared" ref="AO36:AO39" si="177">E36*AO$3</f>
         <v>134217728</v>
       </c>
       <c r="AP36" s="1">
-        <f t="shared" ref="AP36:AP39" si="170">F36*AP$3</f>
+        <f t="shared" ref="AP36:AP39" si="178">F36*AP$3</f>
         <v>0</v>
       </c>
       <c r="AQ36" s="1">
-        <f t="shared" ref="AQ36:AQ39" si="171">G36*AQ$3</f>
+        <f t="shared" ref="AQ36:AQ39" si="179">G36*AQ$3</f>
         <v>33554432</v>
       </c>
       <c r="AR36" s="1">
-        <f t="shared" ref="AR36:AR39" si="172">H36*AR$3</f>
+        <f t="shared" ref="AR36:AR39" si="180">H36*AR$3</f>
         <v>0</v>
       </c>
       <c r="AS36" s="1">
-        <f>I36*AS$3</f>
+        <f t="shared" ref="AS36:AU38" si="181">I36*AS$3</f>
         <v>0</v>
       </c>
       <c r="AT36" s="1">
-        <f>J36*AT$3</f>
+        <f t="shared" si="181"/>
         <v>0</v>
       </c>
       <c r="AU36" s="1">
-        <f>K36*AU$3</f>
+        <f t="shared" si="181"/>
         <v>0</v>
       </c>
       <c r="AV36" s="1">
-        <f t="shared" ref="AV36:AV39" si="173">L36*AV$3</f>
+        <f t="shared" ref="AV36:AV39" si="182">L36*AV$3</f>
         <v>0</v>
       </c>
       <c r="AW36" s="1">
-        <f t="shared" ref="AW36:AW39" si="174">M36*AW$3</f>
+        <f t="shared" ref="AW36:AW39" si="183">M36*AW$3</f>
         <v>0</v>
       </c>
       <c r="AX36" s="1">
-        <f t="shared" ref="AX36:AX39" si="175">N36*AX$3</f>
+        <f t="shared" ref="AX36:AX39" si="184">N36*AX$3</f>
         <v>0</v>
       </c>
       <c r="AY36" s="1">
-        <f t="shared" ref="AY36:AY39" si="176">O36*AY$3</f>
+        <f t="shared" ref="AY36:AY39" si="185">O36*AY$3</f>
         <v>0</v>
       </c>
       <c r="AZ36" s="1">
-        <f t="shared" ref="AZ36:AZ39" si="177">P36*AZ$3</f>
+        <f t="shared" ref="AZ36:AZ39" si="186">P36*AZ$3</f>
         <v>0</v>
       </c>
       <c r="BA36" s="1">
-        <f t="shared" ref="BA36:BA39" si="178">Q36*BA$3</f>
+        <f t="shared" ref="BA36:BA39" si="187">Q36*BA$3</f>
         <v>0</v>
       </c>
       <c r="BB36" s="1">
-        <f t="shared" ref="BB36:BB39" si="179">R36*BB$3</f>
+        <f t="shared" ref="BB36:BB39" si="188">R36*BB$3</f>
         <v>0</v>
       </c>
       <c r="BC36" s="1">
-        <f t="shared" ref="BC36:BC39" si="180">S36*BC$3</f>
+        <f t="shared" ref="BC36:BC39" si="189">S36*BC$3</f>
         <v>0</v>
       </c>
       <c r="BD36" s="1">
-        <f t="shared" ref="BD36:BD39" si="181">T36*BD$3</f>
+        <f t="shared" ref="BD36:BD39" si="190">T36*BD$3</f>
         <v>0</v>
       </c>
       <c r="BE36" s="1">
-        <f t="shared" ref="BE36:BE39" si="182">U36*BE$3</f>
+        <f t="shared" ref="BE36:BE39" si="191">U36*BE$3</f>
         <v>0</v>
       </c>
       <c r="BF36" s="1">
-        <f t="shared" ref="BF36:BF39" si="183">V36*BF$3</f>
+        <f t="shared" ref="BF36:BF39" si="192">V36*BF$3</f>
         <v>0</v>
       </c>
       <c r="BG36" s="1">
-        <f t="shared" ref="BG36:BG39" si="184">W36*BG$3</f>
+        <f t="shared" ref="BG36:BG39" si="193">W36*BG$3</f>
         <v>0</v>
       </c>
       <c r="BH36" s="1">
-        <f t="shared" ref="BH36:BH39" si="185">X36*BH$3</f>
+        <f t="shared" ref="BH36:BH39" si="194">X36*BH$3</f>
         <v>0</v>
       </c>
       <c r="BI36" s="1">
-        <f t="shared" ref="BI36:BI39" si="186">Y36*BI$3</f>
+        <f t="shared" ref="BI36:BI39" si="195">Y36*BI$3</f>
         <v>0</v>
       </c>
       <c r="BJ36" s="1">
-        <f t="shared" ref="BJ36:BJ39" si="187">Z36*BJ$3</f>
+        <f t="shared" ref="BJ36:BJ39" si="196">Z36*BJ$3</f>
         <v>0</v>
       </c>
       <c r="BK36" s="1">
-        <f t="shared" ref="BK36:BK39" si="188">AA36*BK$3</f>
+        <f t="shared" ref="BK36:BK39" si="197">AA36*BK$3</f>
         <v>0</v>
       </c>
       <c r="BL36" s="1">
-        <f t="shared" ref="BL36:BL39" si="189">AB36*BL$3</f>
+        <f t="shared" ref="BL36:BL39" si="198">AB36*BL$3</f>
         <v>0</v>
       </c>
       <c r="BM36" s="1">
-        <f t="shared" ref="BM36:BM39" si="190">AC36*BM$3</f>
-        <v>0</v>
+        <f t="shared" ref="BM36:BM39" si="199">AC36*BM$3</f>
+        <v>8</v>
       </c>
       <c r="BN36" s="1">
-        <f t="shared" ref="BN36:BN39" si="191">AD36*BN$3</f>
-        <v>0</v>
+        <f t="shared" ref="BN36:BN39" si="200">AD36*BN$3</f>
+        <v>4</v>
       </c>
       <c r="BO36" s="1">
-        <f t="shared" ref="BO36:BO39" si="192">AE36*BO$3</f>
-        <v>0</v>
+        <f t="shared" ref="BO36:BO39" si="201">AE36*BO$3</f>
+        <v>2</v>
       </c>
       <c r="BP36" s="1">
-        <f t="shared" ref="BP36:BP39" si="193">AF36*BP$3</f>
-        <v>0</v>
+        <f t="shared" ref="BP36:BP39" si="202">AF36*BP$3</f>
+        <v>1</v>
       </c>
       <c r="BR36" s="1" t="str">
-        <f t="shared" ref="BR36:BR39" si="194">"0x" &amp; DEC2HEX(SUM(AK36:BP36)) &amp; "U, "</f>
-        <v xml:space="preserve">0xAA000000U, </v>
+        <f t="shared" ref="BR36:BR39" si="203">"0x" &amp; DEC2HEX(SUM(AK36:BP36)) &amp; "U, "</f>
+        <v xml:space="preserve">0xAA00000FU, </v>
       </c>
     </row>
     <row r="37" spans="1:70" x14ac:dyDescent="0.25">
@@ -5380,137 +5405,149 @@
       <c r="K37" s="1">
         <v>1</v>
       </c>
+      <c r="AC37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF37" s="1">
+        <v>1</v>
+      </c>
       <c r="AK37" s="1">
-        <f t="shared" si="165"/>
+        <f t="shared" si="173"/>
         <v>2147483648</v>
       </c>
       <c r="AL37" s="1">
-        <f t="shared" si="166"/>
+        <f t="shared" si="174"/>
         <v>1073741824</v>
       </c>
       <c r="AM37" s="1">
-        <f t="shared" si="167"/>
+        <f t="shared" si="175"/>
         <v>536870912</v>
       </c>
       <c r="AN37" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="176"/>
         <v>0</v>
       </c>
       <c r="AO37" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="177"/>
         <v>134217728</v>
       </c>
       <c r="AP37" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="178"/>
         <v>67108864</v>
       </c>
       <c r="AQ37" s="1">
-        <f t="shared" si="171"/>
+        <f t="shared" si="179"/>
         <v>33554432</v>
       </c>
       <c r="AR37" s="1">
-        <f t="shared" si="172"/>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="AS37" s="1">
-        <f>I37*AS$3</f>
+        <f t="shared" si="181"/>
         <v>8388608</v>
       </c>
       <c r="AT37" s="1">
-        <f>J37*AT$3</f>
+        <f t="shared" si="181"/>
         <v>4194304</v>
       </c>
       <c r="AU37" s="1">
-        <f>K37*AU$3</f>
+        <f t="shared" si="181"/>
         <v>2097152</v>
       </c>
       <c r="AV37" s="1">
-        <f t="shared" si="173"/>
+        <f t="shared" si="182"/>
         <v>0</v>
       </c>
       <c r="AW37" s="1">
-        <f t="shared" si="174"/>
+        <f t="shared" si="183"/>
         <v>0</v>
       </c>
       <c r="AX37" s="1">
-        <f t="shared" si="175"/>
+        <f t="shared" si="184"/>
         <v>0</v>
       </c>
       <c r="AY37" s="1">
-        <f t="shared" si="176"/>
+        <f t="shared" si="185"/>
         <v>0</v>
       </c>
       <c r="AZ37" s="1">
-        <f t="shared" si="177"/>
+        <f t="shared" si="186"/>
         <v>0</v>
       </c>
       <c r="BA37" s="1">
-        <f t="shared" si="178"/>
+        <f t="shared" si="187"/>
         <v>0</v>
       </c>
       <c r="BB37" s="1">
-        <f t="shared" si="179"/>
+        <f t="shared" si="188"/>
         <v>0</v>
       </c>
       <c r="BC37" s="1">
-        <f t="shared" si="180"/>
+        <f t="shared" si="189"/>
         <v>0</v>
       </c>
       <c r="BD37" s="1">
-        <f t="shared" si="181"/>
+        <f t="shared" si="190"/>
         <v>0</v>
       </c>
       <c r="BE37" s="1">
-        <f t="shared" si="182"/>
+        <f t="shared" si="191"/>
         <v>0</v>
       </c>
       <c r="BF37" s="1">
-        <f t="shared" si="183"/>
+        <f t="shared" si="192"/>
         <v>0</v>
       </c>
       <c r="BG37" s="1">
-        <f t="shared" si="184"/>
+        <f t="shared" si="193"/>
         <v>0</v>
       </c>
       <c r="BH37" s="1">
-        <f t="shared" si="185"/>
+        <f t="shared" si="194"/>
         <v>0</v>
       </c>
       <c r="BI37" s="1">
-        <f t="shared" si="186"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="BJ37" s="1">
-        <f t="shared" si="187"/>
+        <f t="shared" si="196"/>
         <v>0</v>
       </c>
       <c r="BK37" s="1">
-        <f t="shared" si="188"/>
+        <f t="shared" si="197"/>
         <v>0</v>
       </c>
       <c r="BL37" s="1">
-        <f t="shared" si="189"/>
+        <f t="shared" si="198"/>
         <v>0</v>
       </c>
       <c r="BM37" s="1">
-        <f t="shared" si="190"/>
-        <v>0</v>
+        <f t="shared" si="199"/>
+        <v>8</v>
       </c>
       <c r="BN37" s="1">
-        <f t="shared" si="191"/>
-        <v>0</v>
+        <f t="shared" si="200"/>
+        <v>4</v>
       </c>
       <c r="BO37" s="1">
-        <f t="shared" si="192"/>
-        <v>0</v>
+        <f t="shared" si="201"/>
+        <v>2</v>
       </c>
       <c r="BP37" s="1">
-        <f t="shared" si="193"/>
-        <v>0</v>
+        <f t="shared" si="202"/>
+        <v>1</v>
       </c>
       <c r="BR37" s="1" t="str">
-        <f t="shared" si="194"/>
-        <v xml:space="preserve">0xEEE00000U, </v>
+        <f t="shared" si="203"/>
+        <v xml:space="preserve">0xEEE0000FU, </v>
       </c>
     </row>
     <row r="38" spans="1:70" x14ac:dyDescent="0.25">
@@ -5523,137 +5560,149 @@
       <c r="G38" s="1">
         <v>1</v>
       </c>
+      <c r="AC38" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD38" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF38" s="1">
+        <v>1</v>
+      </c>
       <c r="AK38" s="1">
-        <f t="shared" si="165"/>
+        <f t="shared" si="173"/>
         <v>2147483648</v>
       </c>
       <c r="AL38" s="1">
-        <f t="shared" si="166"/>
+        <f t="shared" si="174"/>
         <v>0</v>
       </c>
       <c r="AM38" s="1">
-        <f t="shared" si="167"/>
+        <f t="shared" si="175"/>
         <v>536870912</v>
       </c>
       <c r="AN38" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="176"/>
         <v>0</v>
       </c>
       <c r="AO38" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="177"/>
         <v>0</v>
       </c>
       <c r="AP38" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="178"/>
         <v>0</v>
       </c>
       <c r="AQ38" s="1">
-        <f t="shared" si="171"/>
+        <f t="shared" si="179"/>
         <v>33554432</v>
       </c>
       <c r="AR38" s="1">
-        <f t="shared" si="172"/>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="AS38" s="1">
-        <f>I38*AS$3</f>
+        <f t="shared" si="181"/>
         <v>0</v>
       </c>
       <c r="AT38" s="1">
-        <f>J38*AT$3</f>
+        <f t="shared" si="181"/>
         <v>0</v>
       </c>
       <c r="AU38" s="1">
-        <f>K38*AU$3</f>
+        <f t="shared" si="181"/>
         <v>0</v>
       </c>
       <c r="AV38" s="1">
-        <f t="shared" si="173"/>
+        <f t="shared" si="182"/>
         <v>0</v>
       </c>
       <c r="AW38" s="1">
-        <f t="shared" si="174"/>
+        <f t="shared" si="183"/>
         <v>0</v>
       </c>
       <c r="AX38" s="1">
-        <f t="shared" si="175"/>
+        <f t="shared" si="184"/>
         <v>0</v>
       </c>
       <c r="AY38" s="1">
-        <f t="shared" si="176"/>
+        <f t="shared" si="185"/>
         <v>0</v>
       </c>
       <c r="AZ38" s="1">
-        <f t="shared" si="177"/>
+        <f t="shared" si="186"/>
         <v>0</v>
       </c>
       <c r="BA38" s="1">
-        <f t="shared" si="178"/>
+        <f t="shared" si="187"/>
         <v>0</v>
       </c>
       <c r="BB38" s="1">
-        <f t="shared" si="179"/>
+        <f t="shared" si="188"/>
         <v>0</v>
       </c>
       <c r="BC38" s="1">
-        <f t="shared" si="180"/>
+        <f t="shared" si="189"/>
         <v>0</v>
       </c>
       <c r="BD38" s="1">
-        <f t="shared" si="181"/>
+        <f t="shared" si="190"/>
         <v>0</v>
       </c>
       <c r="BE38" s="1">
-        <f t="shared" si="182"/>
+        <f t="shared" si="191"/>
         <v>0</v>
       </c>
       <c r="BF38" s="1">
-        <f t="shared" si="183"/>
+        <f t="shared" si="192"/>
         <v>0</v>
       </c>
       <c r="BG38" s="1">
-        <f t="shared" si="184"/>
+        <f t="shared" si="193"/>
         <v>0</v>
       </c>
       <c r="BH38" s="1">
-        <f t="shared" si="185"/>
+        <f t="shared" si="194"/>
         <v>0</v>
       </c>
       <c r="BI38" s="1">
-        <f t="shared" si="186"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="BJ38" s="1">
-        <f t="shared" si="187"/>
+        <f t="shared" si="196"/>
         <v>0</v>
       </c>
       <c r="BK38" s="1">
-        <f t="shared" si="188"/>
+        <f t="shared" si="197"/>
         <v>0</v>
       </c>
       <c r="BL38" s="1">
-        <f t="shared" si="189"/>
+        <f t="shared" si="198"/>
         <v>0</v>
       </c>
       <c r="BM38" s="1">
-        <f t="shared" si="190"/>
-        <v>0</v>
+        <f t="shared" si="199"/>
+        <v>8</v>
       </c>
       <c r="BN38" s="1">
-        <f t="shared" si="191"/>
-        <v>0</v>
+        <f t="shared" si="200"/>
+        <v>4</v>
       </c>
       <c r="BO38" s="1">
-        <f t="shared" si="192"/>
-        <v>0</v>
+        <f t="shared" si="201"/>
+        <v>2</v>
       </c>
       <c r="BP38" s="1">
-        <f t="shared" si="193"/>
-        <v>0</v>
+        <f t="shared" si="202"/>
+        <v>1</v>
       </c>
       <c r="BR38" s="1" t="str">
-        <f t="shared" si="194"/>
-        <v xml:space="preserve">0xA2000000U, </v>
+        <f t="shared" si="203"/>
+        <v xml:space="preserve">0xA200000FU, </v>
       </c>
     </row>
     <row r="39" spans="1:70" x14ac:dyDescent="0.25">
@@ -5675,137 +5724,152 @@
       <c r="G39" s="1">
         <v>1</v>
       </c>
+      <c r="N39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF39" s="1">
+        <v>1</v>
+      </c>
       <c r="AK39" s="1">
-        <f t="shared" si="165"/>
+        <f t="shared" si="173"/>
         <v>2147483648</v>
       </c>
       <c r="AL39" s="1">
-        <f t="shared" si="166"/>
+        <f t="shared" si="174"/>
         <v>1073741824</v>
       </c>
       <c r="AM39" s="1">
-        <f t="shared" si="167"/>
+        <f t="shared" si="175"/>
         <v>536870912</v>
       </c>
       <c r="AN39" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="176"/>
         <v>0</v>
       </c>
       <c r="AO39" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="177"/>
         <v>134217728</v>
       </c>
       <c r="AP39" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="178"/>
         <v>67108864</v>
       </c>
       <c r="AQ39" s="1">
-        <f t="shared" si="171"/>
+        <f t="shared" si="179"/>
         <v>33554432</v>
       </c>
       <c r="AR39" s="1">
-        <f t="shared" si="172"/>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="AS39" s="1">
-        <f t="shared" ref="AS39" si="195">I39*AS$3</f>
+        <f t="shared" ref="AS39" si="204">I39*AS$3</f>
         <v>0</v>
       </c>
       <c r="AT39" s="1">
-        <f t="shared" ref="AT39" si="196">J39*AT$3</f>
+        <f t="shared" ref="AT39" si="205">J39*AT$3</f>
         <v>0</v>
       </c>
       <c r="AU39" s="1">
-        <f t="shared" ref="AU39" si="197">K39*AU$3</f>
+        <f t="shared" ref="AU39" si="206">K39*AU$3</f>
         <v>0</v>
       </c>
       <c r="AV39" s="1">
-        <f t="shared" si="173"/>
+        <f t="shared" si="182"/>
         <v>0</v>
       </c>
       <c r="AW39" s="1">
-        <f t="shared" si="174"/>
+        <f t="shared" si="183"/>
         <v>0</v>
       </c>
       <c r="AX39" s="1">
-        <f t="shared" si="175"/>
-        <v>0</v>
+        <f t="shared" si="184"/>
+        <v>262144</v>
       </c>
       <c r="AY39" s="1">
-        <f t="shared" si="176"/>
+        <f t="shared" si="185"/>
         <v>0</v>
       </c>
       <c r="AZ39" s="1">
-        <f t="shared" si="177"/>
+        <f t="shared" si="186"/>
         <v>0</v>
       </c>
       <c r="BA39" s="1">
-        <f t="shared" si="178"/>
+        <f t="shared" si="187"/>
         <v>0</v>
       </c>
       <c r="BB39" s="1">
-        <f t="shared" si="179"/>
+        <f t="shared" si="188"/>
         <v>0</v>
       </c>
       <c r="BC39" s="1">
-        <f t="shared" si="180"/>
+        <f t="shared" si="189"/>
         <v>0</v>
       </c>
       <c r="BD39" s="1">
-        <f t="shared" si="181"/>
+        <f t="shared" si="190"/>
         <v>0</v>
       </c>
       <c r="BE39" s="1">
-        <f t="shared" si="182"/>
+        <f t="shared" si="191"/>
         <v>0</v>
       </c>
       <c r="BF39" s="1">
-        <f t="shared" si="183"/>
+        <f t="shared" si="192"/>
         <v>0</v>
       </c>
       <c r="BG39" s="1">
-        <f t="shared" si="184"/>
+        <f t="shared" si="193"/>
         <v>0</v>
       </c>
       <c r="BH39" s="1">
-        <f t="shared" si="185"/>
+        <f t="shared" si="194"/>
         <v>0</v>
       </c>
       <c r="BI39" s="1">
-        <f t="shared" si="186"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="BJ39" s="1">
-        <f t="shared" si="187"/>
+        <f t="shared" si="196"/>
         <v>0</v>
       </c>
       <c r="BK39" s="1">
-        <f t="shared" si="188"/>
+        <f t="shared" si="197"/>
         <v>0</v>
       </c>
       <c r="BL39" s="1">
-        <f t="shared" si="189"/>
+        <f t="shared" si="198"/>
         <v>0</v>
       </c>
       <c r="BM39" s="1">
-        <f t="shared" si="190"/>
-        <v>0</v>
+        <f t="shared" si="199"/>
+        <v>8</v>
       </c>
       <c r="BN39" s="1">
-        <f t="shared" si="191"/>
-        <v>0</v>
+        <f t="shared" si="200"/>
+        <v>4</v>
       </c>
       <c r="BO39" s="1">
-        <f t="shared" si="192"/>
-        <v>0</v>
+        <f t="shared" si="201"/>
+        <v>2</v>
       </c>
       <c r="BP39" s="1">
-        <f t="shared" si="193"/>
-        <v>0</v>
+        <f t="shared" si="202"/>
+        <v>1</v>
       </c>
       <c r="BR39" s="1" t="str">
-        <f t="shared" si="194"/>
-        <v xml:space="preserve">0xEE000000U, </v>
+        <f t="shared" si="203"/>
+        <v xml:space="preserve">0xEE04000FU, </v>
       </c>
     </row>
   </sheetData>

--- a/docs/charset.xlsx
+++ b/docs/charset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\matrix-seq-firmware\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F098FE-B7AC-4786-B463-7C4B83C6271F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEA086B-697B-4AF5-9663-3DA25F7D35AC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{636D0070-F376-4083-98D8-02F06CA89224}"/>
   </bookViews>
@@ -399,8 +399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEBD68D4-0BA7-41BC-8B9F-E16823DD9337}">
   <dimension ref="A2:BR39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="BR39" sqref="BR39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="Z41" sqref="Z41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5074,6 +5074,9 @@
       <c r="G35" s="1">
         <v>1</v>
       </c>
+      <c r="Q35" s="1">
+        <v>1</v>
+      </c>
       <c r="AC35" s="1">
         <v>1</v>
       </c>
@@ -5152,7 +5155,7 @@
       </c>
       <c r="BA35" s="1">
         <f t="shared" si="172"/>
-        <v>0</v>
+        <v>32768</v>
       </c>
       <c r="BB35" s="1">
         <f t="shared" si="172"/>
@@ -5216,7 +5219,7 @@
       </c>
       <c r="BR35" s="1" t="str">
         <f>"0x" &amp; DEC2HEX(SUM(AK35:BP35)) &amp; "U, "</f>
-        <v xml:space="preserve">0xEE00000FU, </v>
+        <v xml:space="preserve">0xEE00800FU, </v>
       </c>
     </row>
     <row r="36" spans="1:70" x14ac:dyDescent="0.25">
@@ -5232,6 +5235,12 @@
       <c r="G36" s="1">
         <v>1</v>
       </c>
+      <c r="R36" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="1">
+        <v>1</v>
+      </c>
       <c r="AC36" s="1">
         <v>1</v>
       </c>
@@ -5314,7 +5323,7 @@
       </c>
       <c r="BB36" s="1">
         <f t="shared" ref="BB36:BB39" si="188">R36*BB$3</f>
-        <v>0</v>
+        <v>16384</v>
       </c>
       <c r="BC36" s="1">
         <f t="shared" ref="BC36:BC39" si="189">S36*BC$3</f>
@@ -5346,7 +5355,7 @@
       </c>
       <c r="BJ36" s="1">
         <f t="shared" ref="BJ36:BJ39" si="196">Z36*BJ$3</f>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="BK36" s="1">
         <f t="shared" ref="BK36:BK39" si="197">AA36*BK$3</f>
@@ -5374,7 +5383,7 @@
       </c>
       <c r="BR36" s="1" t="str">
         <f t="shared" ref="BR36:BR39" si="203">"0x" &amp; DEC2HEX(SUM(AK36:BP36)) &amp; "U, "</f>
-        <v xml:space="preserve">0xAA00000FU, </v>
+        <v xml:space="preserve">0xAA00404FU, </v>
       </c>
     </row>
     <row r="37" spans="1:70" x14ac:dyDescent="0.25">
@@ -5405,6 +5414,24 @@
       <c r="K37" s="1">
         <v>1</v>
       </c>
+      <c r="S37" s="1">
+        <v>1</v>
+      </c>
+      <c r="U37" s="1">
+        <v>1</v>
+      </c>
+      <c r="W37" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>1</v>
+      </c>
       <c r="AC37" s="1">
         <v>1</v>
       </c>
@@ -5491,7 +5518,7 @@
       </c>
       <c r="BC37" s="1">
         <f t="shared" si="189"/>
-        <v>0</v>
+        <v>8192</v>
       </c>
       <c r="BD37" s="1">
         <f t="shared" si="190"/>
@@ -5499,7 +5526,7 @@
       </c>
       <c r="BE37" s="1">
         <f t="shared" si="191"/>
-        <v>0</v>
+        <v>2048</v>
       </c>
       <c r="BF37" s="1">
         <f t="shared" si="192"/>
@@ -5507,7 +5534,7 @@
       </c>
       <c r="BG37" s="1">
         <f t="shared" si="193"/>
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="BH37" s="1">
         <f t="shared" si="194"/>
@@ -5515,15 +5542,15 @@
       </c>
       <c r="BI37" s="1">
         <f t="shared" si="195"/>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="BJ37" s="1">
         <f t="shared" si="196"/>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="BK37" s="1">
         <f t="shared" si="197"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="BL37" s="1">
         <f t="shared" si="198"/>
@@ -5547,7 +5574,7 @@
       </c>
       <c r="BR37" s="1" t="str">
         <f t="shared" si="203"/>
-        <v xml:space="preserve">0xEEE0000FU, </v>
+        <v xml:space="preserve">0xEEE02AEFU, </v>
       </c>
     </row>
     <row r="38" spans="1:70" x14ac:dyDescent="0.25">
@@ -5560,6 +5587,15 @@
       <c r="G38" s="1">
         <v>1</v>
       </c>
+      <c r="R38" s="1">
+        <v>1</v>
+      </c>
+      <c r="V38" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="1">
+        <v>1</v>
+      </c>
       <c r="AC38" s="1">
         <v>1</v>
       </c>
@@ -5642,7 +5678,7 @@
       </c>
       <c r="BB38" s="1">
         <f t="shared" si="188"/>
-        <v>0</v>
+        <v>16384</v>
       </c>
       <c r="BC38" s="1">
         <f t="shared" si="189"/>
@@ -5658,7 +5694,7 @@
       </c>
       <c r="BF38" s="1">
         <f t="shared" si="192"/>
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="BG38" s="1">
         <f t="shared" si="193"/>
@@ -5674,7 +5710,7 @@
       </c>
       <c r="BJ38" s="1">
         <f t="shared" si="196"/>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="BK38" s="1">
         <f t="shared" si="197"/>
@@ -5702,7 +5738,7 @@
       </c>
       <c r="BR38" s="1" t="str">
         <f t="shared" si="203"/>
-        <v xml:space="preserve">0xA200000FU, </v>
+        <v xml:space="preserve">0xA200444FU, </v>
       </c>
     </row>
     <row r="39" spans="1:70" x14ac:dyDescent="0.25">
@@ -5727,6 +5763,15 @@
       <c r="N39" s="1">
         <v>1</v>
       </c>
+      <c r="Q39" s="1">
+        <v>1</v>
+      </c>
+      <c r="U39" s="1">
+        <v>1</v>
+      </c>
+      <c r="W39" s="1">
+        <v>1</v>
+      </c>
       <c r="AC39" s="1">
         <v>1</v>
       </c>
@@ -5805,7 +5850,7 @@
       </c>
       <c r="BA39" s="1">
         <f t="shared" si="187"/>
-        <v>0</v>
+        <v>32768</v>
       </c>
       <c r="BB39" s="1">
         <f t="shared" si="188"/>
@@ -5821,7 +5866,7 @@
       </c>
       <c r="BE39" s="1">
         <f t="shared" si="191"/>
-        <v>0</v>
+        <v>2048</v>
       </c>
       <c r="BF39" s="1">
         <f t="shared" si="192"/>
@@ -5829,7 +5874,7 @@
       </c>
       <c r="BG39" s="1">
         <f t="shared" si="193"/>
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="BH39" s="1">
         <f t="shared" si="194"/>
@@ -5869,7 +5914,7 @@
       </c>
       <c r="BR39" s="1" t="str">
         <f t="shared" si="203"/>
-        <v xml:space="preserve">0xEE04000FU, </v>
+        <v xml:space="preserve">0xEE048A0FU, </v>
       </c>
     </row>
   </sheetData>
